--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Dynamics" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Thermodynamics" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Radiative Processes" sheetId="6" r:id="rId6"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Dynamics" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Thermodynamics" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="580">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -51,19 +52,28 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Dynamics</t>
-  </si>
-  <si>
-    <t>4. Thermodynamics</t>
-  </si>
-  <si>
-    <t>5. Radiative Processes</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Dynamics</t>
+  </si>
+  <si>
+    <t>5. Thermodynamics</t>
+  </si>
+  <si>
+    <t>6. Radiative Processes</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -78,31 +88,58 @@
     <t>1.0.2</t>
   </si>
   <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Sea Ice key properties</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of seaice model code</t>
   </si>
   <si>
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -117,7 +154,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -132,7 +169,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Variables</t>
@@ -141,7 +178,7 @@
     <t>List of prognostic variable in the sea ice model.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Overview of list of prognostic variable in the sea ice model. in seaice model.</t>
@@ -150,7 +187,7 @@
     <t>cmip6.seaice.key_properties.variables.overview</t>
   </si>
   <si>
-    <t>1.2.2 *</t>
+    <t>2.2.2 *</t>
   </si>
   <si>
     <t>Prognostic</t>
@@ -165,9 +202,6 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Sea ice temperature</t>
   </si>
   <si>
@@ -204,7 +238,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Seawater Properties</t>
@@ -213,7 +247,7 @@
     <t>Properties of seawater relevant to sea ice</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of properties of seawater relevant to sea ice in seaice model.</t>
@@ -222,7 +256,7 @@
     <t>cmip6.seaice.key_properties.seawater_properties.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Ocean Freezing Point</t>
@@ -240,7 +274,7 @@
     <t>Constant</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Ocean Freezing Point Value</t>
@@ -255,7 +289,7 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point_value</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -264,7 +298,7 @@
     <t>Resolution of the sea ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Overview of resolution of the sea ice grid in seaice model.</t>
@@ -273,7 +307,7 @@
     <t>cmip6.seaice.key_properties.resolution.overview</t>
   </si>
   <si>
-    <t>1.4.2 *</t>
+    <t>2.4.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid e.g. N512L180, T512L70, ORCA025 etc.</t>
@@ -282,7 +316,7 @@
     <t>cmip6.seaice.key_properties.resolution.name</t>
   </si>
   <si>
-    <t>1.4.3 *</t>
+    <t>2.4.3 *</t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -294,7 +328,7 @@
     <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t>1.4.4 *</t>
+    <t>2.4.4 *</t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -309,7 +343,7 @@
     <t>cmip6.seaice.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -318,7 +352,7 @@
     <t>Tuning applied to sea ice model component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of tuning applied to sea ice model component in seaice model.</t>
@@ -327,7 +361,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -339,7 +373,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t>1.5.3 *</t>
+    <t>2.5.3 *</t>
   </si>
   <si>
     <t>Target</t>
@@ -351,7 +385,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.target</t>
   </si>
   <si>
-    <t>1.5.4 *</t>
+    <t>2.5.4 *</t>
   </si>
   <si>
     <t>Simulations</t>
@@ -363,7 +397,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
   </si>
   <si>
-    <t>1.5.5 *</t>
+    <t>2.5.5 *</t>
   </si>
   <si>
     <t>Metrics Used</t>
@@ -375,7 +409,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.6 </t>
+    <t xml:space="preserve">2.5.6 </t>
   </si>
   <si>
     <t>Variables</t>
@@ -387,7 +421,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>Key Properties --&gt; Key Parameter Values</t>
@@ -396,7 +430,7 @@
     <t>Values of key parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1 </t>
+    <t xml:space="preserve">2.6.1 </t>
   </si>
   <si>
     <t>Overview of values of key parameters in seaice model.</t>
@@ -405,7 +439,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.2 </t>
+    <t xml:space="preserve">2.6.2 </t>
   </si>
   <si>
     <t>Ice Strength</t>
@@ -417,7 +451,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.3 </t>
+    <t xml:space="preserve">2.6.3 </t>
   </si>
   <si>
     <t>Snow Conductivity</t>
@@ -429,7 +463,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.4 </t>
+    <t xml:space="preserve">2.6.4 </t>
   </si>
   <si>
     <t>Ice Thickness In Leads</t>
@@ -441,7 +475,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.5 </t>
+    <t xml:space="preserve">2.6.5 </t>
   </si>
   <si>
     <t>Additional Parameters</t>
@@ -453,7 +487,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>2.7</t>
   </si>
   <si>
     <t>Key Properties --&gt; Assumptions</t>
@@ -462,7 +496,7 @@
     <t>Assumptions made in the sea ice model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7.1 </t>
+    <t xml:space="preserve">2.7.1 </t>
   </si>
   <si>
     <t>Overview of assumptions made in the sea ice model in seaice model.</t>
@@ -471,7 +505,7 @@
     <t>cmip6.seaice.key_properties.assumptions.overview</t>
   </si>
   <si>
-    <t>1.7.2 *</t>
+    <t>2.7.2 *</t>
   </si>
   <si>
     <t>General overview description of any *key* assumptions made in this model.</t>
@@ -480,7 +514,7 @@
     <t>cmip6.seaice.key_properties.assumptions.description</t>
   </si>
   <si>
-    <t>1.7.3 *</t>
+    <t>2.7.3 *</t>
   </si>
   <si>
     <t>On Diagnostic Variables</t>
@@ -492,7 +526,7 @@
     <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
   </si>
   <si>
-    <t>1.7.4 *</t>
+    <t>2.7.4 *</t>
   </si>
   <si>
     <t>Missing Processes</t>
@@ -504,7 +538,7 @@
     <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
   </si>
   <si>
-    <t>1.8</t>
+    <t>2.8</t>
   </si>
   <si>
     <t>Key Properties --&gt; Conservation</t>
@@ -513,7 +547,7 @@
     <t>Conservation in the sea ice component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8.1 </t>
+    <t xml:space="preserve">2.8.1 </t>
   </si>
   <si>
     <t>Overview of conservation in the sea ice component in seaice model.</t>
@@ -522,7 +556,7 @@
     <t>cmip6.seaice.key_properties.conservation.overview</t>
   </si>
   <si>
-    <t>1.8.2 *</t>
+    <t>2.8.2 *</t>
   </si>
   <si>
     <t>Provide a general description of conservation methodology.</t>
@@ -531,7 +565,7 @@
     <t>cmip6.seaice.key_properties.conservation.description</t>
   </si>
   <si>
-    <t>1.8.3 *</t>
+    <t>2.8.3 *</t>
   </si>
   <si>
     <t>Properties</t>
@@ -552,7 +586,7 @@
     <t>Salt</t>
   </si>
   <si>
-    <t>1.8.4 *</t>
+    <t>2.8.4 *</t>
   </si>
   <si>
     <t>Budget</t>
@@ -564,7 +598,7 @@
     <t>cmip6.seaice.key_properties.conservation.budget</t>
   </si>
   <si>
-    <t>1.8.5 *</t>
+    <t>2.8.5 *</t>
   </si>
   <si>
     <t>Was Flux Correction Used</t>
@@ -579,7 +613,7 @@
     <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
   </si>
   <si>
-    <t>1.8.6 *</t>
+    <t>2.8.6 *</t>
   </si>
   <si>
     <t>Corrected Conserved Prognostic Variables</t>
@@ -591,7 +625,7 @@
     <t>cmip6.seaice.key_properties.conservation.corrected_conserved_prognostic_variables</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -600,7 +634,7 @@
     <t>Sea Ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in seaice model.</t>
@@ -609,7 +643,7 @@
     <t>cmip6.seaice.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in seaice model.</t>
@@ -618,7 +652,7 @@
     <t>cmip6.seaice.grid.overview</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation</t>
@@ -627,7 +661,7 @@
     <t>Sea ice discretisation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of sea ice discretisation in seaice model.</t>
@@ -636,7 +670,7 @@
     <t>cmip6.seaice.grid.discretisation.overview</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>3.3</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation --&gt; Horizontal</t>
@@ -645,7 +679,7 @@
     <t>Sea ice discretisation in the horizontal</t>
   </si>
   <si>
-    <t>2.3.1 *</t>
+    <t>3.3.1 *</t>
   </si>
   <si>
     <t>Grid on which sea ice is horizontal discretised?</t>
@@ -663,7 +697,7 @@
     <t>Own Grid</t>
   </si>
   <si>
-    <t>2.3.2 *</t>
+    <t>3.3.2 *</t>
   </si>
   <si>
     <t>Grid Type</t>
@@ -684,7 +718,7 @@
     <t>Adaptive grid</t>
   </si>
   <si>
-    <t>2.3.3 *</t>
+    <t>3.3.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -705,7 +739,7 @@
     <t>Finite volumes</t>
   </si>
   <si>
-    <t>2.3.4 *</t>
+    <t>3.3.4 *</t>
   </si>
   <si>
     <t>Thermodynamics Time Step</t>
@@ -717,7 +751,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.thermodynamics_time_step</t>
   </si>
   <si>
-    <t>2.3.5 *</t>
+    <t>3.3.5 *</t>
   </si>
   <si>
     <t>Dynamics Time Step</t>
@@ -729,7 +763,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.6 </t>
+    <t xml:space="preserve">3.3.6 </t>
   </si>
   <si>
     <t>Additional Details</t>
@@ -741,7 +775,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.additional_details</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>3.4</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation --&gt; Vertical</t>
@@ -750,7 +784,7 @@
     <t>Sea ice vertical properties</t>
   </si>
   <si>
-    <t>2.4.1 *</t>
+    <t>3.4.1 *</t>
   </si>
   <si>
     <t>Layering</t>
@@ -771,7 +805,7 @@
     <t>Multi-layers</t>
   </si>
   <si>
-    <t>2.4.2 *</t>
+    <t>3.4.2 *</t>
   </si>
   <si>
     <t>Number Of Layers</t>
@@ -783,7 +817,7 @@
     <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">3.4.3 </t>
   </si>
   <si>
     <t>Specify any additional vertical grid details.</t>
@@ -792,7 +826,7 @@
     <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>3.5</t>
   </si>
   <si>
     <t>Grid --&gt; Seaice Categories</t>
@@ -801,7 +835,7 @@
     <t>What method is used to represent sea ice categories ?</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
+    <t xml:space="preserve">3.5.1 </t>
   </si>
   <si>
     <t>Overview of what method is used to represent sea ice categories ? in seaice model.</t>
@@ -810,7 +844,7 @@
     <t>cmip6.seaice.grid.seaice_categories.overview</t>
   </si>
   <si>
-    <t>2.5.2 *</t>
+    <t>3.5.2 *</t>
   </si>
   <si>
     <t>Has Mulitple Categories</t>
@@ -822,7 +856,7 @@
     <t>cmip6.seaice.grid.seaice_categories.has_mulitple_categories</t>
   </si>
   <si>
-    <t>2.5.3 *</t>
+    <t>3.5.3 *</t>
   </si>
   <si>
     <t>Number Of Categories</t>
@@ -834,7 +868,7 @@
     <t>cmip6.seaice.grid.seaice_categories.number_of_categories</t>
   </si>
   <si>
-    <t>2.5.4 *</t>
+    <t>3.5.4 *</t>
   </si>
   <si>
     <t>Category Limits</t>
@@ -846,7 +880,7 @@
     <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
   </si>
   <si>
-    <t>2.5.5 *</t>
+    <t>3.5.5 *</t>
   </si>
   <si>
     <t>Ice Thickness Distribution Scheme</t>
@@ -858,7 +892,7 @@
     <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution_scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.6 </t>
+    <t xml:space="preserve">3.5.6 </t>
   </si>
   <si>
     <t>Other</t>
@@ -870,7 +904,7 @@
     <t>cmip6.seaice.grid.seaice_categories.other</t>
   </si>
   <si>
-    <t>2.6</t>
+    <t>3.6</t>
   </si>
   <si>
     <t>Grid --&gt; Snow On Seaice</t>
@@ -879,7 +913,7 @@
     <t>Snow on sea ice details</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.1 </t>
+    <t xml:space="preserve">3.6.1 </t>
   </si>
   <si>
     <t>Overview of snow on sea ice details in seaice model.</t>
@@ -888,7 +922,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.overview</t>
   </si>
   <si>
-    <t>2.6.2 *</t>
+    <t>3.6.2 *</t>
   </si>
   <si>
     <t>Has Snow On Ice</t>
@@ -900,7 +934,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.has_snow_on_ice</t>
   </si>
   <si>
-    <t>2.6.3 *</t>
+    <t>3.6.3 *</t>
   </si>
   <si>
     <t>Number Of Snow Levels</t>
@@ -912,7 +946,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.number_of_snow_levels</t>
   </si>
   <si>
-    <t>2.6.4 *</t>
+    <t>3.6.4 *</t>
   </si>
   <si>
     <t>Snow Fraction</t>
@@ -924,7 +958,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.5 </t>
+    <t xml:space="preserve">3.6.5 </t>
   </si>
   <si>
     <t>Specify any additional details related to snow on ice.</t>
@@ -933,7 +967,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.additional_details</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Dynamics</t>
@@ -942,7 +976,7 @@
     <t>Sea Ice Dynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the dynamics in seaice model.</t>
@@ -951,7 +985,7 @@
     <t>cmip6.seaice.dynamics.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice dynamics in seaice model.</t>
@@ -960,7 +994,7 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Horizontal Transport</t>
@@ -981,7 +1015,7 @@
     <t>Eulerian</t>
   </si>
   <si>
-    <t>3.1.4 *</t>
+    <t>4.1.4 *</t>
   </si>
   <si>
     <t>Transport In Thickness Space</t>
@@ -993,7 +1027,7 @@
     <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
   </si>
   <si>
-    <t>3.1.5 *</t>
+    <t>4.1.5 *</t>
   </si>
   <si>
     <t>Ice Strength Formulation</t>
@@ -1011,7 +1045,7 @@
     <t>Rothrock 1975</t>
   </si>
   <si>
-    <t>3.1.6 *</t>
+    <t>4.1.6 *</t>
   </si>
   <si>
     <t>Redistribution</t>
@@ -1029,7 +1063,7 @@
     <t>Ridging</t>
   </si>
   <si>
-    <t>3.1.7 *</t>
+    <t>4.1.7 *</t>
   </si>
   <si>
     <t>Rheology</t>
@@ -1059,7 +1093,7 @@
     <t>Granular</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Thermodynamics</t>
@@ -1068,7 +1102,7 @@
     <t>Sea Ice Thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the thermodynamics in seaice model.</t>
@@ -1077,7 +1111,7 @@
     <t>cmip6.seaice.thermodynamics.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice thermodynamics in seaice model.</t>
@@ -1086,7 +1120,7 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Energy</t>
@@ -1095,7 +1129,7 @@
     <t>Processes related to energy in sea ice thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1 </t>
+    <t xml:space="preserve">5.2.1 </t>
   </si>
   <si>
     <t>Overview of processes related to energy in sea ice thermodynamics in seaice model.</t>
@@ -1104,7 +1138,7 @@
     <t>cmip6.seaice.thermodynamics.energy.overview</t>
   </si>
   <si>
-    <t>4.2.2 *</t>
+    <t>5.2.2 *</t>
   </si>
   <si>
     <t>Enthalpy Formulation</t>
@@ -1128,7 +1162,7 @@
     <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
   </si>
   <si>
-    <t>4.2.3 *</t>
+    <t>5.2.3 *</t>
   </si>
   <si>
     <t>Thermal Conductivity</t>
@@ -1146,7 +1180,7 @@
     <t>Saline ice</t>
   </si>
   <si>
-    <t>4.2.4 *</t>
+    <t>5.2.4 *</t>
   </si>
   <si>
     <t>Heat Diffusion</t>
@@ -1167,7 +1201,7 @@
     <t>Conduction, radiation and latent heat transport</t>
   </si>
   <si>
-    <t>4.2.5 *</t>
+    <t>5.2.5 *</t>
   </si>
   <si>
     <t>Basal Heat Flux</t>
@@ -1188,7 +1222,7 @@
     <t>Thermal Varying Salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.6 </t>
+    <t xml:space="preserve">5.2.6 </t>
   </si>
   <si>
     <t>Fixed Salinity Value</t>
@@ -1200,7 +1234,7 @@
     <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
   </si>
   <si>
-    <t>4.2.7 *</t>
+    <t>5.2.7 *</t>
   </si>
   <si>
     <t>Heat Content Of Precipitation</t>
@@ -1212,7 +1246,7 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.8 </t>
+    <t xml:space="preserve">5.2.8 </t>
   </si>
   <si>
     <t>Precipitation Effects On Salinity</t>
@@ -1224,7 +1258,7 @@
     <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>5.3</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Mass</t>
@@ -1233,7 +1267,7 @@
     <t>Processes related to mass in sea ice thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.1 </t>
+    <t xml:space="preserve">5.3.1 </t>
   </si>
   <si>
     <t>Overview of processes related to mass in sea ice thermodynamics in seaice model.</t>
@@ -1242,7 +1276,7 @@
     <t>cmip6.seaice.thermodynamics.mass.overview</t>
   </si>
   <si>
-    <t>4.3.2 *</t>
+    <t>5.3.2 *</t>
   </si>
   <si>
     <t>New Ice Formation</t>
@@ -1254,7 +1288,7 @@
     <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
   </si>
   <si>
-    <t>4.3.3 *</t>
+    <t>5.3.3 *</t>
   </si>
   <si>
     <t>Ice Vertical Growth And Melt</t>
@@ -1266,7 +1300,7 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
   </si>
   <si>
-    <t>4.3.4 *</t>
+    <t>5.3.4 *</t>
   </si>
   <si>
     <t>Ice Lateral Melting</t>
@@ -1284,7 +1318,7 @@
     <t>Virtual thin ice melting (for single-category)</t>
   </si>
   <si>
-    <t>4.3.5 *</t>
+    <t>5.3.5 *</t>
   </si>
   <si>
     <t>Ice Surface Sublimation</t>
@@ -1296,7 +1330,7 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
   </si>
   <si>
-    <t>4.3.6 *</t>
+    <t>5.3.6 *</t>
   </si>
   <si>
     <t>Frazil Ice</t>
@@ -1308,7 +1342,7 @@
     <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t>5.4</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt</t>
@@ -1317,7 +1351,7 @@
     <t>Processes related to salt in sea ice thermodynamics.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.1 </t>
+    <t xml:space="preserve">5.4.1 </t>
   </si>
   <si>
     <t>Overview of processes related to salt in sea ice thermodynamics. in seaice model.</t>
@@ -1326,7 +1360,7 @@
     <t>cmip6.seaice.thermodynamics.salt.overview</t>
   </si>
   <si>
-    <t>4.4.2 *</t>
+    <t>5.4.2 *</t>
   </si>
   <si>
     <t>Has Multiple Sea Ice Salinities</t>
@@ -1338,7 +1372,7 @@
     <t>cmip6.seaice.thermodynamics.salt.has_multiple_sea_ice_salinities</t>
   </si>
   <si>
-    <t>4.4.3 *</t>
+    <t>5.4.3 *</t>
   </si>
   <si>
     <t>Sea Ice Salinity Thermal Impacts</t>
@@ -1350,7 +1384,7 @@
     <t>cmip6.seaice.thermodynamics.salt.sea_ice_salinity_thermal_impacts</t>
   </si>
   <si>
-    <t>4.5</t>
+    <t>5.5</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt --&gt; Mass Transport</t>
@@ -1359,7 +1393,7 @@
     <t>Mass transport of salt</t>
   </si>
   <si>
-    <t>4.5.1 *</t>
+    <t>5.5.1 *</t>
   </si>
   <si>
     <t>Salinity Type</t>
@@ -1377,7 +1411,7 @@
     <t>Prognostic salinity profile</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5.2 </t>
+    <t xml:space="preserve">5.5.2 </t>
   </si>
   <si>
     <t>Constant Salinity Value</t>
@@ -1389,7 +1423,7 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5.3 </t>
+    <t xml:space="preserve">5.5.3 </t>
   </si>
   <si>
     <t>Describe the salinity profile used.</t>
@@ -1398,7 +1432,7 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
   </si>
   <si>
-    <t>4.6</t>
+    <t>5.6</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt --&gt; Thermodynamics</t>
@@ -1407,7 +1441,7 @@
     <t>Salt thermodynamics</t>
   </si>
   <si>
-    <t>4.6.1 *</t>
+    <t>5.6.1 *</t>
   </si>
   <si>
     <t>How is salinity determined in the thermodynamic calculation?</t>
@@ -1416,19 +1450,19 @@
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6.2 </t>
+    <t xml:space="preserve">5.6.2 </t>
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6.3 </t>
+    <t xml:space="preserve">5.6.3 </t>
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
   </si>
   <si>
-    <t>4.7</t>
+    <t>5.7</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Ice Thickness Distribution</t>
@@ -1437,7 +1471,7 @@
     <t>Ice thickness distribution details.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7.1 </t>
+    <t xml:space="preserve">5.7.1 </t>
   </si>
   <si>
     <t>Overview of ice thickness distribution details. in seaice model.</t>
@@ -1446,7 +1480,7 @@
     <t>cmip6.seaice.thermodynamics.ice_thickness_distribution.overview</t>
   </si>
   <si>
-    <t>4.7.2 *</t>
+    <t>5.7.2 *</t>
   </si>
   <si>
     <t>Representation</t>
@@ -1464,7 +1498,7 @@
     <t>Virtual (enhancement of thermal conductivity, thin ice melting)</t>
   </si>
   <si>
-    <t>4.8</t>
+    <t>5.8</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Ice Floe Size Distribution</t>
@@ -1473,7 +1507,7 @@
     <t>Ice floe-size distribution details.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8.1 </t>
+    <t xml:space="preserve">5.8.1 </t>
   </si>
   <si>
     <t>Overview of ice floe-size distribution details. in seaice model.</t>
@@ -1482,7 +1516,7 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.overview</t>
   </si>
   <si>
-    <t>4.8.2 *</t>
+    <t>5.8.2 *</t>
   </si>
   <si>
     <t>How is the sea ice floe-size represented?</t>
@@ -1494,7 +1528,7 @@
     <t>Parameterised</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8.3 </t>
+    <t xml:space="preserve">5.8.3 </t>
   </si>
   <si>
     <t>Please provide further details on any parameterisation of floe-size.</t>
@@ -1503,7 +1537,7 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
   </si>
   <si>
-    <t>4.9</t>
+    <t>5.9</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Melt Ponds</t>
@@ -1512,7 +1546,7 @@
     <t>Characteristics of melt ponds.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9.1 </t>
+    <t xml:space="preserve">5.9.1 </t>
   </si>
   <si>
     <t>Overview of characteristics of melt ponds. in seaice model.</t>
@@ -1521,7 +1555,7 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.overview</t>
   </si>
   <si>
-    <t>4.9.2 *</t>
+    <t>5.9.2 *</t>
   </si>
   <si>
     <t>Are Included</t>
@@ -1533,7 +1567,7 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.are_included</t>
   </si>
   <si>
-    <t>4.9.3 *</t>
+    <t>5.9.3 *</t>
   </si>
   <si>
     <t>Formulation</t>
@@ -1551,7 +1585,7 @@
     <t>Level-ice melt ponds</t>
   </si>
   <si>
-    <t>4.9.4 *</t>
+    <t>5.9.4 *</t>
   </si>
   <si>
     <t>Impacts</t>
@@ -1572,7 +1606,7 @@
     <t>Heat</t>
   </si>
   <si>
-    <t>4.10</t>
+    <t>5.10</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Snow Processes</t>
@@ -1581,7 +1615,7 @@
     <t>Thermodynamic processes in snow on sea ice</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.1 </t>
+    <t xml:space="preserve">5.10.1 </t>
   </si>
   <si>
     <t>Overview of thermodynamic processes in snow on sea ice in seaice model.</t>
@@ -1590,7 +1624,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.overview</t>
   </si>
   <si>
-    <t>4.10.2 *</t>
+    <t>5.10.2 *</t>
   </si>
   <si>
     <t>Has Snow Aging</t>
@@ -1602,7 +1636,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.3 </t>
+    <t xml:space="preserve">5.10.3 </t>
   </si>
   <si>
     <t>Snow Aging Scheme</t>
@@ -1614,7 +1648,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_aging_scheme</t>
   </si>
   <si>
-    <t>4.10.4 *</t>
+    <t>5.10.4 *</t>
   </si>
   <si>
     <t>Has Snow Ice Formation</t>
@@ -1626,7 +1660,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.5 </t>
+    <t xml:space="preserve">5.10.5 </t>
   </si>
   <si>
     <t>Snow Ice Formation Scheme</t>
@@ -1638,7 +1672,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
   </si>
   <si>
-    <t>4.10.6 *</t>
+    <t>5.10.6 *</t>
   </si>
   <si>
     <t>What is the impact of ridging on snow cover?</t>
@@ -1647,7 +1681,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
-    <t>4.10.7 *</t>
+    <t>5.10.7 *</t>
   </si>
   <si>
     <t>What is the heat diffusion through snow methodology in sea ice thermodynamics?</t>
@@ -1662,7 +1696,7 @@
     <t>Multi-layered heat diffusion</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Radiative Processes</t>
@@ -1671,7 +1705,7 @@
     <t>Sea Ice Radiative Processes</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the radiative processes in seaice model.</t>
@@ -1680,7 +1714,7 @@
     <t>cmip6.seaice.radiative_processes.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice radiative processes in seaice model.</t>
@@ -1689,7 +1723,7 @@
     <t>cmip6.seaice.radiative_processes.overview</t>
   </si>
   <si>
-    <t>5.1.3 *</t>
+    <t>6.1.3 *</t>
   </si>
   <si>
     <t>Surface Albedo</t>
@@ -1710,7 +1744,7 @@
     <t>Multi-band albedo</t>
   </si>
   <si>
-    <t>5.1.4 *</t>
+    <t>6.1.4 *</t>
   </si>
   <si>
     <t>Ice Radiation Transmission</t>
@@ -1732,7 +1766,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1774,9 +1808,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1801,14 +1834,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1858,7 +1899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1875,10 +1916,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1890,11 +1928,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2190,7 +2234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD16"/>
+  <dimension ref="A1:XFD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2266,31 +2310,119 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD177"/>
   <sheetViews>
@@ -2305,962 +2437,962 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>21</v>
+      <c r="B2" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>26</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
+      <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>31</v>
+      <c r="B10" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>36</v>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
+      <c r="A19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>39</v>
+      <c r="B20" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>33</v>
+      <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>42</v>
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:38" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>44</v>
+      <c r="A26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>47</v>
+      <c r="A27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="B28" s="12" t="s">
-        <v>48</v>
+      <c r="B28" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="11"/>
       <c r="AA29" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AF29" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AG29" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AH29" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>62</v>
+      <c r="A32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="7" t="s">
-        <v>63</v>
+      <c r="B33" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>33</v>
+      <c r="A35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>66</v>
+      <c r="A36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>68</v>
+      <c r="A39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>70</v>
+      <c r="A40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="11"/>
       <c r="AA41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC41" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AB41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC41" s="5" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>74</v>
+      <c r="A43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>77</v>
+      <c r="A44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>79</v>
+      <c r="A48" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="7" t="s">
-        <v>80</v>
+      <c r="B49" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>33</v>
+      <c r="A51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>83</v>
+      <c r="A52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>23</v>
+      <c r="A55" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>86</v>
+      <c r="A56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>88</v>
+      <c r="A59" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>90</v>
+      <c r="A60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="11"/>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>92</v>
+      <c r="A63" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>95</v>
+      <c r="A64" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="B65" s="11"/>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>97</v>
+      <c r="A68" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="B69" s="7" t="s">
-        <v>98</v>
+      <c r="B69" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>33</v>
+      <c r="A71" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>101</v>
+      <c r="A72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="B73" s="11"/>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>103</v>
+      <c r="A75" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>105</v>
+      <c r="A76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="B77" s="12" t="s">
-        <v>36</v>
+      <c r="B77" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="178" customHeight="1">
       <c r="B78" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>107</v>
+      <c r="A80" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>109</v>
+      <c r="A81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>111</v>
+      <c r="A84" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>113</v>
+      <c r="A85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>31</v>
+      <c r="B86" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>115</v>
+      <c r="A89" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>117</v>
+      <c r="A90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="12" t="s">
-        <v>31</v>
+      <c r="B91" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>119</v>
+      <c r="A94" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>121</v>
+      <c r="A95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="12" t="s">
-        <v>31</v>
+      <c r="B96" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>123</v>
+      <c r="A100" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>124</v>
+      <c r="B101" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>33</v>
+      <c r="A103" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>127</v>
+      <c r="A104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>129</v>
+      <c r="A107" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>131</v>
+      <c r="A108" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>133</v>
+      <c r="A111" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>135</v>
+      <c r="A112" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>137</v>
+      <c r="A115" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>139</v>
+      <c r="A116" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>141</v>
+      <c r="A119" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>143</v>
+      <c r="A120" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="12" t="s">
-        <v>31</v>
+      <c r="B121" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>145</v>
+      <c r="A125" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="7" t="s">
-        <v>146</v>
+      <c r="B126" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>33</v>
+      <c r="A128" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>149</v>
+      <c r="A129" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>103</v>
+      <c r="A132" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>152</v>
+      <c r="A133" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="12" t="s">
-        <v>36</v>
+      <c r="B134" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="178" customHeight="1">
       <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>154</v>
+      <c r="A137" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>156</v>
+      <c r="A138" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="12" t="s">
-        <v>31</v>
+      <c r="B139" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11"/>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>158</v>
+      <c r="A142" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>160</v>
+      <c r="A143" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="B144" s="12" t="s">
-        <v>31</v>
+      <c r="B144" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="B145" s="11"/>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>162</v>
+      <c r="A148" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="7" t="s">
-        <v>163</v>
+      <c r="B149" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="A151" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>33</v>
+      <c r="A151" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>166</v>
+      <c r="A152" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="B153" s="11"/>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>103</v>
+      <c r="A155" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="A156" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>169</v>
+      <c r="A156" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="12" t="s">
-        <v>36</v>
+      <c r="B157" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="178" customHeight="1">
       <c r="B158" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>171</v>
+      <c r="A160" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:30" ht="24" customHeight="1">
-      <c r="A161" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>173</v>
+      <c r="A161" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:30" ht="24" customHeight="1">
-      <c r="B162" s="12" t="s">
-        <v>48</v>
+      <c r="B162" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:30" ht="24" customHeight="1">
       <c r="B163" s="11"/>
       <c r="AA163" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="AB163" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="AC163" s="5" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AD163" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:30" ht="24" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>178</v>
+      <c r="A165" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:30" ht="24" customHeight="1">
-      <c r="A166" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>180</v>
+      <c r="A166" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:30" ht="24" customHeight="1">
-      <c r="B167" s="12" t="s">
-        <v>31</v>
+      <c r="B167" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:30" ht="24" customHeight="1">
       <c r="B168" s="11"/>
     </row>
     <row r="170" spans="1:30" ht="24" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>182</v>
+      <c r="A170" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:30" ht="24" customHeight="1">
-      <c r="A171" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>185</v>
+      <c r="A171" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:30" ht="24" customHeight="1">
       <c r="B172" s="11"/>
     </row>
     <row r="174" spans="1:30" ht="24" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>187</v>
+      <c r="A174" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:30" ht="24" customHeight="1">
-      <c r="A175" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>189</v>
+      <c r="A175" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:30" ht="24" customHeight="1">
-      <c r="B176" s="12" t="s">
-        <v>31</v>
+      <c r="B176" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="24" customHeight="1">
@@ -3304,7 +3436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD123"/>
   <sheetViews>
@@ -3319,677 +3451,677 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>191</v>
+      <c r="A1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>192</v>
+      <c r="B2" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>195</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>198</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>200</v>
+      <c r="A14" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>201</v>
+      <c r="B15" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
+      <c r="A17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>204</v>
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>206</v>
+      <c r="A22" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="7" t="s">
-        <v>207</v>
+      <c r="B23" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>191</v>
+      <c r="A25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>210</v>
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="5" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>215</v>
+      <c r="A29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>217</v>
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="5" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>222</v>
+      <c r="A33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>224</v>
+      <c r="A34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>229</v>
+      <c r="A37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>231</v>
+      <c r="A38" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>233</v>
+      <c r="A41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>235</v>
+      <c r="A42" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>237</v>
+      <c r="A45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>239</v>
+      <c r="A46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="B47" s="12" t="s">
-        <v>36</v>
+      <c r="B47" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="178" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>241</v>
+      <c r="A51" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="B52" s="7" t="s">
-        <v>242</v>
+      <c r="B52" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>244</v>
+      <c r="A54" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>246</v>
+      <c r="A55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="B56" s="12" t="s">
-        <v>48</v>
+      <c r="B56" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="11"/>
       <c r="AA57" s="5" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AB57" s="5" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="AD57" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>251</v>
+      <c r="A59" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>253</v>
+      <c r="A60" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="B61" s="11"/>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>237</v>
+      <c r="A63" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>256</v>
+      <c r="A64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="B65" s="12" t="s">
-        <v>36</v>
+      <c r="B65" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="178" customHeight="1">
       <c r="B66" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>258</v>
+      <c r="A69" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="7" t="s">
-        <v>259</v>
+      <c r="B70" s="13" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>33</v>
+      <c r="A72" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>262</v>
+      <c r="A73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>264</v>
+      <c r="A76" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>266</v>
+      <c r="A77" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="B78" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>268</v>
+      <c r="A80" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>270</v>
+      <c r="A81" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>272</v>
+      <c r="A84" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>274</v>
+      <c r="A85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>31</v>
+      <c r="B86" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>276</v>
+      <c r="A89" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>278</v>
+      <c r="A90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="12" t="s">
-        <v>36</v>
+      <c r="B91" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="178" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>280</v>
+      <c r="A94" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>282</v>
+      <c r="A95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="12" t="s">
-        <v>36</v>
+      <c r="B96" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="178" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>284</v>
+      <c r="A100" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>285</v>
+      <c r="B101" s="13" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>33</v>
+      <c r="A103" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>288</v>
+      <c r="A104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>290</v>
+      <c r="A107" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>292</v>
+      <c r="A108" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>294</v>
+      <c r="A111" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>296</v>
+      <c r="A112" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>298</v>
+      <c r="A115" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>300</v>
+      <c r="A116" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="12" t="s">
-        <v>36</v>
+      <c r="B117" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="178" customHeight="1">
       <c r="B118" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>237</v>
+      <c r="A120" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>303</v>
+      <c r="A121" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="12" t="s">
-        <v>36</v>
+      <c r="B122" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="178" customHeight="1">
@@ -4035,7 +4167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
@@ -4050,243 +4182,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>305</v>
+      <c r="A1" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>306</v>
+      <c r="B2" s="13" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>309</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>312</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>314</v>
+      <c r="A13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>316</v>
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>321</v>
+      <c r="A17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>323</v>
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="5" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>325</v>
+      <c r="A21" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>327</v>
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="5" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>331</v>
+      <c r="A25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>333</v>
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
-      <c r="B27" s="12" t="s">
-        <v>48</v>
+      <c r="B27" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="5" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>337</v>
+      <c r="A30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>339</v>
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="5" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="AD32" s="5" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AF32" s="5" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="AG32" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4311,7 +4443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD215"/>
   <sheetViews>
@@ -4326,1229 +4458,1229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>347</v>
+      <c r="A1" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>348</v>
+      <c r="B2" s="13" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>351</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>354</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>356</v>
+      <c r="A14" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>357</v>
+      <c r="B15" s="13" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
+      <c r="A17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>360</v>
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>362</v>
+      <c r="A21" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>364</v>
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>370</v>
+      <c r="A25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>372</v>
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="5" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>376</v>
+      <c r="A29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>378</v>
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="5" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>383</v>
+      <c r="A33" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>385</v>
+      <c r="A34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="5" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>390</v>
+      <c r="A37" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>392</v>
+      <c r="A38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>394</v>
+      <c r="A41" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>396</v>
+      <c r="A42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
-      <c r="B43" s="12" t="s">
-        <v>36</v>
+      <c r="B43" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="178" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>398</v>
+      <c r="A46" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>400</v>
+      <c r="A47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
-      <c r="B48" s="12" t="s">
-        <v>36</v>
+      <c r="B48" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="178" customHeight="1">
       <c r="B49" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>402</v>
+      <c r="A52" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="7" t="s">
-        <v>403</v>
+      <c r="B53" s="13" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>33</v>
+      <c r="A55" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>406</v>
+      <c r="A56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>408</v>
+      <c r="A59" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>410</v>
+      <c r="A60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="12" t="s">
-        <v>36</v>
+      <c r="B61" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="178" customHeight="1">
       <c r="B62" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>412</v>
+      <c r="A64" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>414</v>
+      <c r="A65" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="B66" s="12" t="s">
-        <v>36</v>
+      <c r="B66" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="178" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>416</v>
+      <c r="A69" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>418</v>
+      <c r="A70" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="B71" s="11"/>
       <c r="AA71" s="5" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>422</v>
+      <c r="A73" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>424</v>
+      <c r="A74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
-      <c r="B75" s="12" t="s">
-        <v>36</v>
+      <c r="B75" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="178" customHeight="1">
       <c r="B76" s="11"/>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>426</v>
+      <c r="A78" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>428</v>
+      <c r="A79" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
-      <c r="B80" s="12" t="s">
-        <v>36</v>
+      <c r="B80" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="178" customHeight="1">
       <c r="B81" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>430</v>
+      <c r="A84" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="7" t="s">
-        <v>431</v>
+      <c r="B85" s="13" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>33</v>
+      <c r="A87" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>434</v>
+      <c r="A88" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="11"/>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>436</v>
+      <c r="A91" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>438</v>
+      <c r="A92" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>440</v>
+      <c r="A95" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>442</v>
+      <c r="A96" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>444</v>
+      <c r="A100" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>445</v>
+      <c r="B101" s="13" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>447</v>
+      <c r="A103" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>449</v>
+      <c r="A104" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="B105" s="11"/>
       <c r="AA105" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AB105" s="5" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AC105" s="5" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AD105" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>453</v>
+      <c r="A107" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>455</v>
+      <c r="A108" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:30" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>237</v>
+      <c r="A111" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>458</v>
+      <c r="A112" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="24" customHeight="1">
-      <c r="B113" s="12" t="s">
-        <v>36</v>
+      <c r="B113" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:30" ht="178" customHeight="1">
       <c r="B114" s="11"/>
     </row>
     <row r="117" spans="1:30" ht="24" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>460</v>
+      <c r="A117" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:30" ht="24" customHeight="1">
-      <c r="B118" s="7" t="s">
-        <v>461</v>
+      <c r="B118" s="13" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:30" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>447</v>
+      <c r="A120" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:30" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>464</v>
+      <c r="A121" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:30" ht="24" customHeight="1">
       <c r="B122" s="11"/>
       <c r="AA122" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AB122" s="5" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AC122" s="5" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AD122" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:30" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" ht="24" customHeight="1">
+      <c r="A125" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="125" spans="1:30" ht="24" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>466</v>
+      <c r="C125" s="9" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:30" ht="24" customHeight="1">
       <c r="B126" s="11"/>
     </row>
     <row r="128" spans="1:30" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>237</v>
+      <c r="A128" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:29" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C129" s="10" t="s">
+      <c r="A129" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>468</v>
       </c>
+      <c r="C129" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
-      <c r="B130" s="12" t="s">
-        <v>36</v>
+      <c r="B130" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="178" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>470</v>
+      <c r="A134" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="7" t="s">
-        <v>471</v>
+      <c r="B135" s="13" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>33</v>
+      <c r="A137" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>474</v>
+      <c r="A138" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="11"/>
     </row>
     <row r="141" spans="1:29" ht="24" customHeight="1">
-      <c r="A141" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>476</v>
+      <c r="A141" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:29" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>478</v>
+      <c r="A142" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="B143" s="11"/>
       <c r="AA143" s="5" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AB143" s="5" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="AC143" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:29" ht="24" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>482</v>
+      <c r="A146" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="147" spans="1:29" ht="24" customHeight="1">
-      <c r="B147" s="7" t="s">
-        <v>483</v>
+      <c r="B147" s="13" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="149" spans="1:29" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>33</v>
+      <c r="A149" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:29" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>486</v>
+      <c r="A150" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="151" spans="1:29" ht="24" customHeight="1">
       <c r="B151" s="11"/>
     </row>
     <row r="153" spans="1:29" ht="24" customHeight="1">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>476</v>
-      </c>
     </row>
     <row r="154" spans="1:29" ht="24" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>489</v>
+      <c r="A154" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:29" ht="24" customHeight="1">
       <c r="B155" s="11"/>
       <c r="AA155" s="5" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AB155" s="5" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="AC155" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:29" ht="24" customHeight="1">
-      <c r="A157" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>237</v>
+      <c r="A157" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:29" ht="24" customHeight="1">
-      <c r="A158" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>493</v>
+      <c r="A158" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:29" ht="24" customHeight="1">
-      <c r="B159" s="12" t="s">
-        <v>36</v>
+      <c r="B159" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:29" ht="178" customHeight="1">
       <c r="B160" s="11"/>
     </row>
     <row r="163" spans="1:29" ht="24" customHeight="1">
-      <c r="A163" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>495</v>
+      <c r="A163" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
-      <c r="B164" s="7" t="s">
-        <v>496</v>
+      <c r="B164" s="13" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
-      <c r="A166" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>33</v>
+      <c r="A166" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>499</v>
+      <c r="A167" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="168" spans="1:29" ht="24" customHeight="1">
       <c r="B168" s="11"/>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>501</v>
+      <c r="A170" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
-      <c r="A171" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>503</v>
+      <c r="A171" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="24" customHeight="1">
       <c r="B172" s="11"/>
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>505</v>
+      <c r="A174" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
-      <c r="A175" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>507</v>
+      <c r="A175" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11"/>
       <c r="AA176" s="5" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="AB176" s="5" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="AC176" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="178" spans="1:30" ht="24" customHeight="1">
-      <c r="A178" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>511</v>
+      <c r="A178" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:30" ht="24" customHeight="1">
-      <c r="A179" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>513</v>
+      <c r="A179" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:30" ht="24" customHeight="1">
-      <c r="B180" s="12" t="s">
-        <v>48</v>
+      <c r="B180" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:30" ht="24" customHeight="1">
       <c r="B181" s="11"/>
       <c r="AA181" s="5" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AB181" s="5" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="AC181" s="5" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="AD181" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:30" ht="24" customHeight="1">
-      <c r="A184" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>518</v>
+      <c r="A184" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="185" spans="1:30" ht="24" customHeight="1">
-      <c r="B185" s="7" t="s">
-        <v>519</v>
+      <c r="B185" s="13" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:30" ht="24" customHeight="1">
-      <c r="A187" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>33</v>
+      <c r="A187" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:30" ht="24" customHeight="1">
-      <c r="A188" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>522</v>
+      <c r="A188" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:30" ht="24" customHeight="1">
       <c r="B189" s="11"/>
     </row>
     <row r="191" spans="1:30" ht="24" customHeight="1">
-      <c r="A191" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>524</v>
+      <c r="A191" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="192" spans="1:30" ht="24" customHeight="1">
-      <c r="A192" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>526</v>
+      <c r="A192" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="B193" s="11"/>
     </row>
     <row r="195" spans="1:3" ht="24" customHeight="1">
-      <c r="A195" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>528</v>
+      <c r="A195" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>530</v>
+      <c r="A196" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
-      <c r="B197" s="12" t="s">
-        <v>36</v>
+      <c r="B197" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="178" customHeight="1">
       <c r="B198" s="11"/>
     </row>
     <row r="200" spans="1:3" ht="24" customHeight="1">
-      <c r="A200" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>532</v>
+      <c r="A200" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="24" customHeight="1">
-      <c r="A201" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>534</v>
+      <c r="A201" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
       <c r="B202" s="11"/>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>536</v>
+      <c r="A204" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="24" customHeight="1">
-      <c r="A205" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>538</v>
+      <c r="A205" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" customHeight="1">
-      <c r="B206" s="12" t="s">
-        <v>36</v>
+      <c r="B206" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="178" customHeight="1">
       <c r="B207" s="11"/>
     </row>
     <row r="209" spans="1:29" ht="24" customHeight="1">
-      <c r="A209" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>331</v>
+      <c r="A209" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="210" spans="1:29" ht="24" customHeight="1">
-      <c r="A210" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>541</v>
+      <c r="A210" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="211" spans="1:29" ht="24" customHeight="1">
       <c r="B211" s="11"/>
     </row>
     <row r="213" spans="1:29" ht="24" customHeight="1">
-      <c r="A213" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>376</v>
+      <c r="A213" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="214" spans="1:29" ht="24" customHeight="1">
-      <c r="A214" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>544</v>
+      <c r="A214" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="215" spans="1:29" ht="24" customHeight="1">
       <c r="B215" s="11"/>
       <c r="AA215" s="5" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="AB215" s="5" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="AC215" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5621,7 +5753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD20"/>
   <sheetViews>
@@ -5636,138 +5768,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>548</v>
+      <c r="A1" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>549</v>
+      <c r="B2" s="13" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>552</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>555</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>557</v>
+      <c r="A13" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>559</v>
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>564</v>
+      <c r="A17" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>566</v>
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>48</v>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="5" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
@@ -43,7 +43,7 @@
     <t>MRI-ESM2-0</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Sea Ice</t>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="545">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -154,6 +154,9 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
+    <t>Sea Ice (MRI.COM3)</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
+  </si>
+  <si>
+    <t>Other: concentration, ice thickness, snow thickness, ice temperature, horizontal velocity</t>
   </si>
   <si>
     <t>Sea ice temperature</t>
@@ -741,6 +747,9 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
+    <t>Other: 5</t>
+  </si>
+  <si>
     <t>Zero-layer</t>
   </si>
   <si>
@@ -924,6 +933,9 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
+    <t>General Attributes / advection : MPDATA</t>
+  </si>
+  <si>
     <t>3.1.1.3 *</t>
   </si>
   <si>
@@ -957,6 +969,9 @@
     <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
   </si>
   <si>
+    <t>Other: linear remapping</t>
+  </si>
+  <si>
     <t>3.1.1.5 *</t>
   </si>
   <si>
@@ -969,6 +984,9 @@
     <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
   </si>
   <si>
+    <t>Other: hibler(1979) type</t>
+  </si>
+  <si>
     <t>Hibler 1979</t>
   </si>
   <si>
@@ -987,12 +1005,12 @@
     <t>cmip6.seaice.dynamics.redistribution</t>
   </si>
   <si>
+    <t>Ridging</t>
+  </si>
+  <si>
     <t>Rafting</t>
   </si>
   <si>
-    <t>Ridging</t>
-  </si>
-  <si>
     <t>3.1.1.7 *</t>
   </si>
   <si>
@@ -1005,6 +1023,9 @@
     <t>cmip6.seaice.dynamics.rheology</t>
   </si>
   <si>
+    <t>Other: evp</t>
+  </si>
+  <si>
     <t>Free-drift</t>
   </si>
   <si>
@@ -1050,6 +1071,10 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
+    <t>General attributes / surface albedo: _x000D_
+The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
+  </si>
+  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -1113,6 +1138,9 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
   </si>
   <si>
+    <t>Other: one layer</t>
+  </si>
+  <si>
     <t>Conduction fluxes</t>
   </si>
   <si>
@@ -1132,6 +1160,9 @@
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
+  </si>
+  <si>
+    <t>Other: parametrized (calculated in seaice)</t>
   </si>
   <si>
     <t>Heat Reservoir</t>
@@ -1202,6 +1233,9 @@
     <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
   </si>
   <si>
+    <t>Sea ice is formed when sea surface temperature (temperature of the top layer of the ocean model) is below freezing point. The heat needed to raise the temperature to the freezing point is regarded as the latent heat release through the sea ice formation.</t>
+  </si>
+  <si>
     <t>4.3.1.2 *</t>
   </si>
   <si>
@@ -1458,6 +1492,9 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
   </si>
   <si>
+    <t>Other: no</t>
+  </si>
+  <si>
     <t>Flocco and Feltham (2010)</t>
   </si>
   <si>
@@ -1551,6 +1588,9 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
+    <t>Snow-ice</t>
+  </si>
+  <si>
     <t>4.8.1.6 *</t>
   </si>
   <si>
@@ -1603,6 +1643,9 @@
   </si>
   <si>
     <t>cmip6.seaice.radiative_processes.surface_albedo</t>
+  </si>
+  <si>
+    <t>Other: it depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
   </si>
   <si>
     <t>Delta-Eddington</t>
@@ -2393,14 +2436,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2408,15 +2453,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -2424,10 +2469,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2435,15 +2480,15 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -2451,34 +2496,34 @@
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2487,105 +2532,107 @@
       </c>
     </row>
     <row r="25" spans="1:38" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
@@ -2593,20 +2640,20 @@
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>40</v>
@@ -2617,10 +2664,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -2628,10 +2675,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -2639,10 +2686,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -2650,21 +2697,21 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -2672,23 +2719,23 @@
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -2696,15 +2743,15 @@
         <v>41</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="178" customHeight="1">
@@ -2712,10 +2759,10 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -2723,10 +2770,10 @@
         <v>41</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -2734,10 +2781,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -2745,15 +2792,15 @@
         <v>41</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -2761,10 +2808,10 @@
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
@@ -2772,15 +2819,15 @@
         <v>41</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -2788,10 +2835,10 @@
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -2799,15 +2846,15 @@
         <v>41</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -2815,34 +2862,34 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -2850,21 +2897,21 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -2872,21 +2919,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -2894,10 +2941,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -2905,15 +2952,15 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -2921,23 +2968,23 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -2945,15 +2992,15 @@
         <v>41</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="B110" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="178" customHeight="1">
@@ -2961,10 +3008,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -2972,15 +3019,15 @@
         <v>41</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -2988,10 +3035,10 @@
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -2999,15 +3046,15 @@
         <v>41</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="B120" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -3015,23 +3062,23 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="B125" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="A127" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
@@ -3039,15 +3086,15 @@
         <v>41</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:30" ht="24" customHeight="1">
       <c r="B129" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:30" ht="178" customHeight="1">
@@ -3055,21 +3102,21 @@
     </row>
     <row r="132" spans="1:30" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:30" ht="24" customHeight="1">
       <c r="A133" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:30" ht="24" customHeight="1">
@@ -3080,24 +3127,24 @@
     <row r="135" spans="1:30" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AD135" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:30" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:30" ht="24" customHeight="1">
@@ -3105,15 +3152,15 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:30" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:30" ht="24" customHeight="1">
@@ -3121,21 +3168,21 @@
     </row>
     <row r="142" spans="1:30" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:30" ht="24" customHeight="1">
       <c r="A143" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:30" ht="24" customHeight="1">
@@ -3143,10 +3190,10 @@
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
@@ -3154,15 +3201,15 @@
         <v>41</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
       <c r="B148" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -3222,20 +3269,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3246,10 +3293,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3257,10 +3304,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3268,15 +3315,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3284,136 +3331,138 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -3421,21 +3470,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3443,10 +3492,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3454,15 +3503,15 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
@@ -3470,34 +3519,34 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -3506,37 +3555,39 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="AA49" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -3544,10 +3595,10 @@
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
@@ -3555,15 +3606,15 @@
         <v>41</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="178" customHeight="1">
@@ -3571,34 +3622,34 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -3606,21 +3657,21 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -3628,10 +3679,10 @@
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -3639,15 +3690,15 @@
         <v>41</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
@@ -3655,10 +3706,10 @@
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -3666,15 +3717,15 @@
         <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
@@ -3682,10 +3733,10 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -3693,15 +3744,15 @@
         <v>41</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="178" customHeight="1">
@@ -3709,34 +3760,34 @@
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -3744,21 +3795,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -3766,10 +3817,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -3777,15 +3828,15 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="178" customHeight="1">
@@ -3793,10 +3844,10 @@
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -3804,15 +3855,15 @@
         <v>41</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="178" customHeight="1">
@@ -3874,20 +3925,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3898,10 +3949,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -3909,10 +3960,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -3920,136 +3971,142 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="AC19" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="AA19" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>316</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4058,58 +4115,62 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>323</v>
+      </c>
       <c r="AA28" s="6" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="AA32" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4150,20 +4211,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4174,10 +4235,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4185,10 +4246,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4196,186 +4257,192 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>367</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="AA31" s="6" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4383,10 +4450,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4394,15 +4461,15 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
@@ -4410,10 +4477,10 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4421,15 +4488,15 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="178" customHeight="1">
@@ -4437,23 +4504,23 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4461,26 +4528,28 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="178" customHeight="1">
-      <c r="B54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -4488,15 +4557,15 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="178" customHeight="1">
@@ -4504,41 +4573,41 @@
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4546,15 +4615,15 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
@@ -4562,10 +4631,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -4573,15 +4642,15 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
@@ -4589,34 +4658,34 @@
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
@@ -4624,21 +4693,21 @@
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -4646,68 +4715,68 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -4715,10 +4784,10 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -4726,15 +4795,15 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="178" customHeight="1">
@@ -4742,68 +4811,68 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -4811,10 +4880,10 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -4822,15 +4891,15 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="178" customHeight="1">
@@ -4838,98 +4907,98 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -4937,15 +5006,15 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:29" ht="178" customHeight="1">
@@ -4953,34 +5022,34 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -4988,52 +5057,54 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="B152" s="11" t="s">
+        <v>484</v>
+      </c>
       <c r="AA152" s="6" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5044,48 +5115,48 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5093,10 +5164,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5104,15 +5175,15 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="178" customHeight="1">
@@ -5120,21 +5191,21 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5142,10 +5213,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5153,15 +5224,15 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="178" customHeight="1">
@@ -5169,10 +5240,10 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5180,44 +5251,48 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
-      <c r="B183" s="11"/>
+      <c r="B183" s="11" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
-      <c r="B187" s="11"/>
+      <c r="B187" s="11" t="s">
+        <v>367</v>
+      </c>
       <c r="AA187" s="6" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5306,20 +5381,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5330,10 +5405,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5341,10 +5416,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5352,15 +5427,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
@@ -5368,55 +5443,57 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>535</v>
+      </c>
       <c r="AA15" s="6" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5427,16 +5504,16 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yukimoto/Documents/研究計画・プロジェクト/CMIP6/Documentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C28EAB1-6E6D-2B4C-89D7-2A56EC2AC0D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3340" yWindow="1580" windowWidth="26240" windowHeight="22460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="558">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -154,9 +160,6 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
-    <t>Sea Ice (MRI.COM3)</t>
-  </si>
-  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
-  </si>
-  <si>
-    <t>Other: concentration, ice thickness, snow thickness, ice temperature, horizontal velocity</t>
   </si>
   <si>
     <t>Sea ice temperature</t>
@@ -747,9 +747,6 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Other: 5</t>
-  </si>
-  <si>
     <t>Zero-layer</t>
   </si>
   <si>
@@ -933,9 +930,6 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
-    <t>General Attributes / advection : MPDATA</t>
-  </si>
-  <si>
     <t>3.1.1.3 *</t>
   </si>
   <si>
@@ -969,9 +963,6 @@
     <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
   </si>
   <si>
-    <t>Other: linear remapping</t>
-  </si>
-  <si>
     <t>3.1.1.5 *</t>
   </si>
   <si>
@@ -984,9 +975,6 @@
     <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
   </si>
   <si>
-    <t>Other: hibler(1979) type</t>
-  </si>
-  <si>
     <t>Hibler 1979</t>
   </si>
   <si>
@@ -1023,9 +1011,6 @@
     <t>cmip6.seaice.dynamics.rheology</t>
   </si>
   <si>
-    <t>Other: evp</t>
-  </si>
-  <si>
     <t>Free-drift</t>
   </si>
   <si>
@@ -1071,10 +1056,6 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
-    <t>General attributes / surface albedo: _x000D_
-The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
-  </si>
-  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -1138,9 +1119,6 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
   </si>
   <si>
-    <t>Other: one layer</t>
-  </si>
-  <si>
     <t>Conduction fluxes</t>
   </si>
   <si>
@@ -1160,9 +1138,6 @@
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
-  </si>
-  <si>
-    <t>Other: parametrized (calculated in seaice)</t>
   </si>
   <si>
     <t>Heat Reservoir</t>
@@ -1492,9 +1467,6 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
   </si>
   <si>
-    <t>Other: no</t>
-  </si>
-  <si>
     <t>Flocco and Feltham (2010)</t>
   </si>
   <si>
@@ -1588,9 +1560,6 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
-    <t>Snow-ice</t>
-  </si>
-  <si>
     <t>4.8.1.6 *</t>
   </si>
   <si>
@@ -1645,9 +1614,6 @@
     <t>cmip6.seaice.radiative_processes.surface_albedo</t>
   </si>
   <si>
-    <t>Other: it depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
-  </si>
-  <si>
     <t>Delta-Eddington</t>
   </si>
   <si>
@@ -1673,17 +1639,142 @@
   </si>
   <si>
     <t>Ice radiation transmission per category</t>
+  </si>
+  <si>
+    <t>MRI.COM ver. 4.4</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>It depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>GONDOLA_100</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>100km</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Tf = -0.0543 S where Tf is the freezing point in deg C and S is salinity in psu.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>6.0E-1, 1.4E0, 2.4E0, 3.6E0, 3.0E1 in m</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>EVP rheology, 1-layer ice, thickness categories</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The sea ice model of MRI.COM is based on the Los Alamos sea ice model (CICE; Hunke and Lipscomb, 2010): thermodynamics of Mellor and Kantha (1989) with one-layer ice (Semtner, 1976); dynamics of the elastic-viscous-plastic rheology (Hunke and Dukowicz, 1997) and ridging scheme by Thorndike et al. (1975). Five thickness categories are allowed within a grid cell (Lipscomb, 2001). See Tsujino et al. (2017) for details.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>See 5.1.1.3 for albedos.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>Ocean surface tilt,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>melt pond, black carbon, tide, snow blowing</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Energy, mass and salt budgets are closed without any artificial correction in the sea ice model. Salinities for sea ice and snow are set to 4 and 0, respectively.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>One-layer</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Lipscomb (2001) thickness category scheme based on the formulation of Thorndike et al. (1975) as in CICE.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Snow fraction: f=h_snow/(h_snow+h_snowpatch), where h_snow is snow thickness and h_snowpatch =0.02 m, following CICE.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Elastic-viscous-plastic  rheology (Hunke and Dukowicz); evolution of thickness distribution due to ridging and other mechanical processes (Thorndike et al., 1975)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Multidimensional positive definite advection transport algorism (MPDATA; Smolarkiewicz, 1984)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>linear remapping</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Precipitation on sea ice falls as snow, thus has the energy corresponding to latent heat of fusion.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Growth and melt of the sea ice ocurrs at top or bottom of the sea ice, i.e. the sea ice develops vertically through thermodynamics.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Freezing at open ocean creates sea ice with a minimum thickness of 0.1 m. No sophisticated frazil ice process is considered.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Ice floe size is not represented.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The part of snow that is below freeboard becomes sea ice. Salt of the new snow ice is taken from the first layer of the ocean.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>No impact. Snow cover is diagnozed from snow depth (see 2.1.1.3).</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>MRI</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1780,6 +1871,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1825,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1869,17 +1974,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1921,7 +2037,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1953,9 +2069,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1987,6 +2121,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2162,24 +2314,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2187,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2203,7 +2355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2219,27 +2371,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2247,7 +2399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2255,7 +2407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2263,7 +2415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2271,41 +2423,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="20">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="20">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2316,7 +2471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2340,11 +2495,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:2" ht="19">
+      <c r="A9" s="11" t="s">
+        <v>557</v>
+      </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2368,39 +2525,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2437,15 +2597,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2453,26 +2613,28 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2480,50 +2642,52 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2536,415 +2700,1623 @@
         <v>63</v>
       </c>
       <c r="AA25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AE25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AF25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AH25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AI25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AJ25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AK25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AL25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AK25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:38" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL26" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="24" customHeight="1">
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL28" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="24" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL29" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL30" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL31" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="24" customHeight="1">
+      <c r="A34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AL25" s="6" t="s">
+      <c r="B34" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="A28" s="12" t="s">
+    <row r="35" spans="1:29" ht="24" customHeight="1">
+      <c r="B35" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="12" t="s">
+    </row>
+    <row r="37" spans="1:29" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" ht="24" customHeight="1">
-      <c r="B29" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
+    <row r="38" spans="1:29" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
+    <row r="39" spans="1:29" ht="24" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="24" customHeight="1">
+      <c r="A42" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="46" spans="1:29" ht="24" customHeight="1">
+      <c r="A46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
+      <c r="B47" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="B59" s="11">
+        <f>360*362</f>
+        <v>130320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="B63" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="B76" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="B77" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="A80" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="B81" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="B82" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="B86" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="B91" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="A93" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="A94" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="B95" s="15">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="B99" s="15">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="A102" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="B103" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="A106" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="B107" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="B108" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="A111" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="B112" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="A114" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="A115" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="B116" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="178" customHeight="1">
+      <c r="B117" s="11"/>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="A119" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="A120" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="B121" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="A124" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="A125" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="B126" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="B127" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" ht="24" customHeight="1">
+      <c r="A130" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" ht="24" customHeight="1">
+      <c r="B131" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" ht="24" customHeight="1">
+      <c r="A133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" ht="24" customHeight="1">
+      <c r="A134" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="24" customHeight="1">
+      <c r="B135" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" ht="178" customHeight="1">
+      <c r="B136" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="24" customHeight="1">
+      <c r="A138" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" ht="24" customHeight="1">
+      <c r="A139" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="24" customHeight="1">
+      <c r="B140" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" ht="24" customHeight="1">
+      <c r="B141" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA141" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB141" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC141" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD141" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" ht="24" customHeight="1">
+      <c r="B142" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA142" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB142" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC142" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD142" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="24" customHeight="1">
+      <c r="B143" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA143" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB143" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC143" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD143" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="24" customHeight="1">
+      <c r="A145" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="A146" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="B147" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="B148" s="11"/>
+    </row>
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="A150" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="24" customHeight="1">
+      <c r="A151" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="B152" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1">
+      <c r="A154" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="A155" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
+      <c r="B156" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1">
+      <c r="B157" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>AA39:AC39</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B103 B99 B95" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B143" xr:uid="{00000000-0002-0000-0200-000007000000}">
+      <formula1>AA141:AD141</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152" xr:uid="{00000000-0002-0000-0200-000008000000}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>AA25:AL25</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="24" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
+      <c r="B31" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11">
         <v>60</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="AA33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
+      <c r="B38" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="178" customHeight="1">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="A43" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="B44" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="A47" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="B48" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="B49" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC49" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD49" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="178" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="B56" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1">
+      <c r="B57" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="178" customHeight="1">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1">
+      <c r="A61" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="B62" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>115</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
+      <c r="B66" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="B70" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>121</v>
+      <c r="B73" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+      <c r="B74" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="B75" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>125</v>
+      <c r="B78" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="14" t="s">
+      <c r="B79" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="178" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="B80" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B83" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="B84" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
+      <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>134</v>
+      <c r="A88" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
+      <c r="B89" s="13" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -2952,300 +4324,59 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="B102" s="11"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="178" customHeight="1">
+      <c r="B102" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>148</v>
+      <c r="A105" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="178" customHeight="1">
-      <c r="B111" s="11"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="B116" s="11"/>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="B120" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30" ht="24" customHeight="1">
-      <c r="B129" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" ht="178" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:30" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30" ht="24" customHeight="1">
-      <c r="B134" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-      <c r="AA135" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB135" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC135" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD135" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="137" spans="1:30" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:30" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="144" spans="1:30" ht="24" customHeight="1">
-      <c r="B144" s="11"/>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="B148" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="11"/>
+      <c r="B106" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="178" customHeight="1">
+      <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AL25</formula1>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AC33</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AD135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3253,692 +4384,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-      <c r="AA23" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
-      <c r="AA27" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="B49" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA49" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB49" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC49" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD49" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="B57" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="178" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="B62" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="B74" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="A83" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="B84" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
-      <c r="B85" s="11"/>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="178" customHeight="1">
-      <c r="B102" s="11"/>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
-      <c r="B107" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AD23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AD27</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>AA49:AD49</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3949,10 +4426,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -3960,10 +4437,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -3971,142 +4448,150 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>299</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="24" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-      <c r="AA15" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="AD15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>311</v>
+        <v>73</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4116,78 +4601,73 @@
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>AA32:AG32</formula1>
     </dataValidation>
   </dataValidations>
@@ -4196,35 +4676,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4235,10 +4717,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4246,10 +4728,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4257,203 +4739,207 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>345</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>354</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4461,26 +4947,28 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4488,15 +4976,15 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="178" customHeight="1">
@@ -4504,23 +4992,23 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4528,28 +5016,28 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="178" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -4557,57 +5045,59 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="178" customHeight="1">
-      <c r="B59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4615,15 +5105,15 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
@@ -4631,10 +5121,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -4642,152 +5132,162 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
-      <c r="B73" s="11"/>
+      <c r="B73" s="11" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B81" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="B85" s="11"/>
+      <c r="B85" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="AA93" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -4795,15 +5295,15 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="178" customHeight="1">
@@ -4811,79 +5311,83 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
-      <c r="B110" s="11"/>
+      <c r="B110" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="AA110" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B114" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -4891,15 +5395,15 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="178" customHeight="1">
@@ -4907,98 +5411,105 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="AA127" s="6" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
+      <c r="B135" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>553</v>
+      </c>
       <c r="AA135" s="6" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -5006,15 +5517,15 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:29" ht="178" customHeight="1">
@@ -5022,89 +5533,89 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
-      <c r="B148" s="11"/>
+      <c r="B148" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
-      <c r="B152" s="11" t="s">
-        <v>484</v>
-      </c>
+      <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5115,59 +5626,61 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
+      <c r="B165" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5175,15 +5688,15 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="178" customHeight="1">
@@ -5191,32 +5704,34 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="11"/>
+      <c r="B174" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5224,26 +5739,28 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="178" customHeight="1">
-      <c r="B179" s="11"/>
+      <c r="B179" s="11" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5251,114 +5768,68 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11" t="s">
-        <v>367</v>
+        <v>508</v>
       </c>
       <c r="AA187" s="6" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA19:AE19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B187 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B157 B110 B93 B31" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AC63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B174 B165 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>AA93:AD93</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
-      <formula1>AA110:AD110</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
-      <formula1>AA127:AC127</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AC135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
-      <formula1>AA152:AC152</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
-      <formula1>AA157:AD157</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
-      <formula1>AA187:AC187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5366,35 +5837,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5405,10 +5878,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5416,10 +5889,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5427,73 +5900,78 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>535</v>
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5502,27 +5980,27 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>530</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA15:AD15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yukimoto/Documents/研究計画・プロジェクト/CMIP6/Documentation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C28EAB1-6E6D-2B4C-89D7-2A56EC2AC0D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="1580" windowWidth="26240" windowHeight="22460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -21,12 +15,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="546">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -160,6 +154,9 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
+    <t>Sea Ice (MRI.COM3)</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
+    <t>Other: concentration, ice thickness, snow thickness, ice temperature, horizontal velocity</t>
+  </si>
+  <si>
     <t>Sea ice temperature</t>
   </si>
   <si>
@@ -241,10 +241,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature</t>
-  </si>
-  <si>
-    <t>Snow depth</t>
+    <t>Snow temperature: Snow on ice temperature</t>
+  </si>
+  <si>
+    <t>Snow depth: Snow on ice thickness</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -271,10 +271,10 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10</t>
-  </si>
-  <si>
-    <t>Constant</t>
+    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
+  </si>
+  <si>
+    <t>Constant: Constant value of seawater freezing point is used.</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -639,13 +639,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid</t>
-  </si>
-  <si>
-    <t>Own Grid</t>
+    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
+  </si>
+  <si>
+    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -666,7 +666,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid</t>
+    <t>Adaptive grid: Computational grid changes during the run</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -747,13 +747,16 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Zero-layer</t>
-  </si>
-  <si>
-    <t>Two-layers</t>
-  </si>
-  <si>
-    <t>Multi-layers</t>
+    <t>Other: 5</t>
+  </si>
+  <si>
+    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
+  </si>
+  <si>
+    <t>Multi-layers: Simulation uses more than two layers.</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -930,6 +933,9 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
+    <t>General Attributes / advection : MPDATA</t>
+  </si>
+  <si>
     <t>3.1.1.3 *</t>
   </si>
   <si>
@@ -942,7 +948,7 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping</t>
+    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
   </si>
   <si>
     <t>Prather</t>
@@ -963,6 +969,9 @@
     <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
   </si>
   <si>
+    <t>Other: linear remapping</t>
+  </si>
+  <si>
     <t>3.1.1.5 *</t>
   </si>
   <si>
@@ -975,6 +984,9 @@
     <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
   </si>
   <si>
+    <t>Other: hibler(1979) type</t>
+  </si>
+  <si>
     <t>Hibler 1979</t>
   </si>
   <si>
@@ -1011,16 +1023,19 @@
     <t>cmip6.seaice.dynamics.rheology</t>
   </si>
   <si>
+    <t>Other: evp</t>
+  </si>
+  <si>
     <t>Free-drift</t>
   </si>
   <si>
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic</t>
+    <t>Visco-plastic: VP</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic: EVP</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1056,6 +1071,10 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
+    <t>General attributes / surface albedo: _x000D_
+The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
+  </si>
+  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -1119,6 +1138,9 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
   </si>
   <si>
+    <t>Other: one layer</t>
+  </si>
+  <si>
     <t>Conduction fluxes</t>
   </si>
   <si>
@@ -1140,13 +1162,16 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Heat Reservoir</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity</t>
+    <t>Other: parametrized (calculated in seaice)</t>
+  </si>
+  <si>
+    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1320,6 +1345,9 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
+    <t>Constant</t>
+  </si>
+  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1467,6 +1495,9 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
   </si>
   <si>
+    <t>Other: no</t>
+  </si>
+  <si>
     <t>Flocco and Feltham (2010)</t>
   </si>
   <si>
@@ -1560,6 +1591,9 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
+    <t>Snow-ice</t>
+  </si>
+  <si>
     <t>4.8.1.6 *</t>
   </si>
   <si>
@@ -1614,13 +1648,16 @@
     <t>cmip6.seaice.radiative_processes.surface_albedo</t>
   </si>
   <si>
+    <t>Other: it depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
+  </si>
+  <si>
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized</t>
-  </si>
-  <si>
-    <t>Multi-band albedo</t>
+    <t>Parameterized: Sea ice albedo is parameterized.</t>
+  </si>
+  <si>
+    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1638,143 +1675,18 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category</t>
-  </si>
-  <si>
-    <t>MRI.COM ver. 4.4</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>It depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>GONDOLA_100</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>100km</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Tf = -0.0543 S where Tf is the freezing point in deg C and S is salinity in psu.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>6.0E-1, 1.4E0, 2.4E0, 3.6E0, 3.0E1 in m</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>EVP rheology, 1-layer ice, thickness categories</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>The sea ice model of MRI.COM is based on the Los Alamos sea ice model (CICE; Hunke and Lipscomb, 2010): thermodynamics of Mellor and Kantha (1989) with one-layer ice (Semtner, 1976); dynamics of the elastic-viscous-plastic rheology (Hunke and Dukowicz, 1997) and ridging scheme by Thorndike et al. (1975). Five thickness categories are allowed within a grid cell (Lipscomb, 2001). See Tsujino et al. (2017) for details.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>See 5.1.1.3 for albedos.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <r>
-      <t>Ocean surface tilt,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>melt pond, black carbon, tide, snow blowing</t>
-    </r>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Energy, mass and salt budgets are closed without any artificial correction in the sea ice model. Salinities for sea ice and snow are set to 4 and 0, respectively.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>One-layer</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Lipscomb (2001) thickness category scheme based on the formulation of Thorndike et al. (1975) as in CICE.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Snow fraction: f=h_snow/(h_snow+h_snowpatch), where h_snow is snow thickness and h_snowpatch =0.02 m, following CICE.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Elastic-viscous-plastic  rheology (Hunke and Dukowicz); evolution of thickness distribution due to ridging and other mechanical processes (Thorndike et al., 1975)</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Multidimensional positive definite advection transport algorism (MPDATA; Smolarkiewicz, 1984)</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>linear remapping</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Precipitation on sea ice falls as snow, thus has the energy corresponding to latent heat of fusion.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Growth and melt of the sea ice ocurrs at top or bottom of the sea ice, i.e. the sea ice develops vertically through thermodynamics.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Freezing at open ocean creates sea ice with a minimum thickness of 0.1 m. No sophisticated frazil ice process is considered.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Ice floe size is not represented.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>The part of snow that is below freeboard becomes sea ice. Salt of the new snow ice is taken from the first layer of the ocean.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>No impact. Snow cover is diagnozed from snow depth (see 2.1.1.3).</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>MRI</t>
-    <phoneticPr fontId="15"/>
+    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1871,20 +1783,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1930,7 +1828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1974,28 +1872,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2037,7 +1924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2069,27 +1956,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2121,24 +1990,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2314,24 +2165,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2339,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2347,7 +2198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2355,7 +2206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2363,7 +2214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2371,27 +2222,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2399,7 +2250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18">
+    <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2407,7 +2258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2415,7 +2266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2423,44 +2274,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2471,7 +2319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2495,13 +2343,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="11" t="s">
-        <v>557</v>
-      </c>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2525,42 +2371,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2597,15 +2440,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>532</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2613,28 +2456,26 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>539</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2642,52 +2483,50 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>540</v>
-      </c>
+      <c r="B16" s="11"/>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2700,1024 +2539,717 @@
         <v>63</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" ht="24" customHeight="1">
-      <c r="B26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL26" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL27" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="B28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL28" s="6" t="s">
-        <v>73</v>
+      <c r="A28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
-      <c r="B29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL29" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL30" s="6" t="s">
-        <v>73</v>
+      <c r="B29" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="24" customHeight="1">
-      <c r="B31" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL31" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="A31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="24" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="24" customHeight="1">
+      <c r="B33" s="11"/>
+      <c r="AA33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC33" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="B35" s="13" t="s">
-        <v>76</v>
+      <c r="A35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>73</v>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1">
+      <c r="A40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="24" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B41" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1">
+      <c r="A48" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="A56" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1">
+      <c r="A60" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
+      <c r="B61" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="178" customHeight="1">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="B66" s="11"/>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="A69" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="B70" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="B71" s="11"/>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="B75" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="B80" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="B85" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
-    </row>
-    <row r="46" spans="1:29" ht="24" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="B47" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="14" t="s">
+      <c r="B88" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="B51" s="11" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="14" t="s">
+      <c r="B100" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="11" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="11">
-        <f>360*362</f>
-        <v>130320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
+      <c r="B109" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="178" customHeight="1">
+      <c r="B111" s="11"/>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="A113" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="A114" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="10" t="s">
+      <c r="B114" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="B115" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="B116" s="11"/>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="A118" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="A119" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="B120" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="B121" s="11"/>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="A124" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="B125" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="A127" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="B67" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
-      <c r="B68" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="14" t="s">
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="A128" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="B72" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="A75" s="14" t="s">
+      <c r="B128" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" ht="24" customHeight="1">
+      <c r="B129" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" ht="178" customHeight="1">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="132" spans="1:30" ht="24" customHeight="1">
+      <c r="A132" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" ht="24" customHeight="1">
+      <c r="A133" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" ht="24" customHeight="1">
+      <c r="B134" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="24" customHeight="1">
+      <c r="B135" s="11"/>
+      <c r="AA135" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB135" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC135" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD135" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" ht="24" customHeight="1">
+      <c r="A137" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="24" customHeight="1">
+      <c r="A138" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="B77" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="14" t="s">
+      <c r="B138" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" ht="24" customHeight="1">
+      <c r="B139" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="24" customHeight="1">
+      <c r="B140" s="11"/>
+    </row>
+    <row r="142" spans="1:30" ht="24" customHeight="1">
+      <c r="A142" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="24" customHeight="1">
+      <c r="A143" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" ht="24" customHeight="1">
+      <c r="B144" s="11"/>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="A146" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="A147" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="15">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="15">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="A101" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="B103" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="B107" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="B108" s="11" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="B112" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="B116" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="178" customHeight="1">
-      <c r="B117" s="11"/>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="B127" s="11" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" ht="24" customHeight="1">
-      <c r="A130" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="1:30" ht="24" customHeight="1">
-      <c r="B131" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30" ht="24" customHeight="1">
-      <c r="A134" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" ht="24" customHeight="1">
-      <c r="B135" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:30" ht="178" customHeight="1">
-      <c r="B136" s="11" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" ht="24" customHeight="1">
-      <c r="A139" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" ht="24" customHeight="1">
-      <c r="B140" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:30" ht="24" customHeight="1">
-      <c r="B141" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA141" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB141" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC141" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD141" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="142" spans="1:30" ht="24" customHeight="1">
-      <c r="B142" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA142" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB142" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC142" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD142" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" ht="24" customHeight="1">
-      <c r="B143" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA143" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB143" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC143" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD143" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="B147" s="8" t="s">
-        <v>48</v>
+      <c r="B147" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="B148" s="11"/>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="A151" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="B152" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="11" t="s">
-        <v>538</v>
-      </c>
+      <c r="B148" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1">
+      <c r="B149" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>AA39:AC39</formula1>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AL25</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B103 B99 B95" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AC33</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B143" xr:uid="{00000000-0002-0000-0200-000007000000}">
-      <formula1>AA141:AD141</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+      <formula1>AA135:AD135</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>AA25:AL25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3725,37 +3257,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3766,10 +3296,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3777,10 +3307,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3788,15 +3318,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3804,179 +3334,171 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>207</v>
-      </c>
+      <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>214</v>
-      </c>
+      <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11">
-        <v>1800</v>
-      </c>
+      <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11">
-        <v>60</v>
-      </c>
+      <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3984,15 +3506,15 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
@@ -4000,34 +3522,34 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -4037,41 +3559,38 @@
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>544</v>
+        <v>238</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -4079,10 +3598,10 @@
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
@@ -4090,15 +3609,15 @@
         <v>41</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="178" customHeight="1">
@@ -4106,71 +3625,67 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B66" s="11"/>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="11">
-        <v>5</v>
-      </c>
+      <c r="B70" s="11"/>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4178,28 +3693,26 @@
         <v>41</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11" t="s">
-        <v>537</v>
-      </c>
+      <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -4207,28 +3720,26 @@
         <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11" t="s">
-        <v>545</v>
-      </c>
+      <c r="B80" s="11"/>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4236,15 +3747,15 @@
         <v>41</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="178" customHeight="1">
@@ -4252,71 +3763,67 @@
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B93" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11">
-        <v>1</v>
-      </c>
+      <c r="B97" s="11"/>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -4324,28 +3831,26 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="178" customHeight="1">
-      <c r="B102" s="11" t="s">
-        <v>546</v>
-      </c>
+      <c r="B102" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4353,31 +3858,54 @@
         <v>41</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="178" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AD23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AD27</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>AA49:AD49</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4385,37 +3913,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4426,10 +3952,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -4437,10 +3963,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -4448,150 +3974,142 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>547</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>548</v>
-      </c>
+      <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>549</v>
+        <v>311</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4601,73 +4119,78 @@
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>AA19:AD19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AC28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>AA32:AG32</formula1>
     </dataValidation>
   </dataValidations>
@@ -4676,37 +4199,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AE187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4717,10 +4238,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4728,10 +4249,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4739,207 +4260,203 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>346</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11">
-        <v>4</v>
-      </c>
+      <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4947,28 +4464,26 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11" t="s">
-        <v>550</v>
-      </c>
+      <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4976,15 +4491,15 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="178" customHeight="1">
@@ -4992,23 +4507,23 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -5016,28 +4531,28 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="178" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -5045,59 +4560,57 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="178" customHeight="1">
-      <c r="B59" s="11" t="s">
-        <v>551</v>
-      </c>
+      <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -5105,15 +4618,15 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
@@ -5121,10 +4634,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -5132,162 +4645,152 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
-      <c r="B73" s="11" t="s">
-        <v>552</v>
-      </c>
+      <c r="B73" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
-      <c r="B81" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B81" s="11"/>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="B85" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
-      <c r="B93" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
-      <c r="B97" s="11">
-        <v>4</v>
-      </c>
+      <c r="B97" s="11"/>
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -5295,15 +4798,15 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="178" customHeight="1">
@@ -5311,83 +4814,79 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
-      <c r="B110" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
-      <c r="B114" s="11">
-        <v>4</v>
-      </c>
+      <c r="B114" s="11"/>
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -5395,15 +4894,15 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="178" customHeight="1">
@@ -5411,105 +4910,98 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
-      <c r="B127" s="11" t="s">
-        <v>451</v>
-      </c>
+      <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>553</v>
-      </c>
+      <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -5517,15 +5009,15 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:29" ht="178" customHeight="1">
@@ -5533,89 +5025,89 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
-      <c r="B148" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B148" s="11"/>
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="B152" s="11" t="s">
+        <v>485</v>
+      </c>
       <c r="AA152" s="6" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5626,61 +5118,59 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B165" s="11"/>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5688,15 +5178,15 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="178" customHeight="1">
@@ -5704,34 +5194,32 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B174" s="11"/>
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5739,28 +5227,26 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="178" customHeight="1">
-      <c r="B179" s="11" t="s">
-        <v>554</v>
-      </c>
+      <c r="B179" s="11"/>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5768,68 +5254,114 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>555</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11" t="s">
-        <v>508</v>
+        <v>367</v>
       </c>
       <c r="AA187" s="6" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>AA19:AE19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B187 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B157 B110 B93 B31" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AD31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B174 B165 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AC63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>AA93:AD93</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
+      <formula1>AA110:AD110</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
+      <formula1>AA127:AC127</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+      <formula1>AA135:AC135</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
+      <formula1>AA152:AC152</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
+      <formula1>AA157:AD157</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
+      <formula1>AA187:AC187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5837,37 +5369,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5878,10 +5408,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5889,10 +5419,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5900,78 +5430,73 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>556</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5980,27 +5505,27 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>530</v>
-      </c>
+      <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AD15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yukimoto/Documents/研究計画・プロジェクト/CMIP6/Documentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C28EAB1-6E6D-2B4C-89D7-2A56EC2AC0D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3340" yWindow="1580" windowWidth="26240" windowHeight="22460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="558">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -154,9 +160,6 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
-    <t>Sea Ice (MRI.COM3)</t>
-  </si>
-  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -211,9 +214,6 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
-    <t>Other: concentration, ice thickness, snow thickness, ice temperature, horizontal velocity</t>
-  </si>
-  <si>
     <t>Sea ice temperature</t>
   </si>
   <si>
@@ -241,10 +241,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature: Snow on ice temperature</t>
-  </si>
-  <si>
-    <t>Snow depth: Snow on ice thickness</t>
+    <t>Snow temperature</t>
+  </si>
+  <si>
+    <t>Snow depth</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -271,10 +271,10 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
-  </si>
-  <si>
-    <t>Constant: Constant value of seawater freezing point is used.</t>
+    <t>TEOS-10</t>
+  </si>
+  <si>
+    <t>Constant</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -639,13 +639,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
-  </si>
-  <si>
-    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
+    <t>Ocean grid</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid</t>
+  </si>
+  <si>
+    <t>Own Grid</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -666,7 +666,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid: Computational grid changes during the run</t>
+    <t>Adaptive grid</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -747,16 +747,13 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Other: 5</t>
-  </si>
-  <si>
-    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
-  </si>
-  <si>
-    <t>Multi-layers: Simulation uses more than two layers.</t>
+    <t>Zero-layer</t>
+  </si>
+  <si>
+    <t>Two-layers</t>
+  </si>
+  <si>
+    <t>Multi-layers</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -933,9 +930,6 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
-    <t>General Attributes / advection : MPDATA</t>
-  </si>
-  <si>
     <t>3.1.1.3 *</t>
   </si>
   <si>
@@ -948,7 +942,7 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
+    <t>Incremental Re-mapping</t>
   </si>
   <si>
     <t>Prather</t>
@@ -969,9 +963,6 @@
     <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
   </si>
   <si>
-    <t>Other: linear remapping</t>
-  </si>
-  <si>
     <t>3.1.1.5 *</t>
   </si>
   <si>
@@ -984,9 +975,6 @@
     <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
   </si>
   <si>
-    <t>Other: hibler(1979) type</t>
-  </si>
-  <si>
     <t>Hibler 1979</t>
   </si>
   <si>
@@ -1023,19 +1011,16 @@
     <t>cmip6.seaice.dynamics.rheology</t>
   </si>
   <si>
-    <t>Other: evp</t>
-  </si>
-  <si>
     <t>Free-drift</t>
   </si>
   <si>
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic: VP</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic: EVP</t>
+    <t>Visco-plastic</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1071,10 +1056,6 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
-    <t>General attributes / surface albedo: _x000D_
-The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
-  </si>
-  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -1138,9 +1119,6 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
   </si>
   <si>
-    <t>Other: one layer</t>
-  </si>
-  <si>
     <t>Conduction fluxes</t>
   </si>
   <si>
@@ -1162,16 +1140,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Other: parametrized (calculated in seaice)</t>
-  </si>
-  <si>
-    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
+    <t>Heat Reservoir</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1345,9 +1320,6 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
-    <t>Constant</t>
-  </si>
-  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1495,9 +1467,6 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
   </si>
   <si>
-    <t>Other: no</t>
-  </si>
-  <si>
     <t>Flocco and Feltham (2010)</t>
   </si>
   <si>
@@ -1591,9 +1560,6 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
-    <t>Snow-ice</t>
-  </si>
-  <si>
     <t>4.8.1.6 *</t>
   </si>
   <si>
@@ -1648,16 +1614,13 @@
     <t>cmip6.seaice.radiative_processes.surface_albedo</t>
   </si>
   <si>
-    <t>Other: it depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
-  </si>
-  <si>
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized: Sea ice albedo is parameterized.</t>
-  </si>
-  <si>
-    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
+    <t>Parameterized</t>
+  </si>
+  <si>
+    <t>Multi-band albedo</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1675,18 +1638,143 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
+    <t>Ice radiation transmission per category</t>
+  </si>
+  <si>
+    <t>MRI.COM ver. 4.4</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>It depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>GONDOLA_100</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>100km</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Tf = -0.0543 S where Tf is the freezing point in deg C and S is salinity in psu.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>6.0E-1, 1.4E0, 2.4E0, 3.6E0, 3.0E1 in m</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>EVP rheology, 1-layer ice, thickness categories</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The sea ice model of MRI.COM is based on the Los Alamos sea ice model (CICE; Hunke and Lipscomb, 2010): thermodynamics of Mellor and Kantha (1989) with one-layer ice (Semtner, 1976); dynamics of the elastic-viscous-plastic rheology (Hunke and Dukowicz, 1997) and ridging scheme by Thorndike et al. (1975). Five thickness categories are allowed within a grid cell (Lipscomb, 2001). See Tsujino et al. (2017) for details.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>See 5.1.1.3 for albedos.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>Ocean surface tilt,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>melt pond, black carbon, tide, snow blowing</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Energy, mass and salt budgets are closed without any artificial correction in the sea ice model. Salinities for sea ice and snow are set to 4 and 0, respectively.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>One-layer</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Lipscomb (2001) thickness category scheme based on the formulation of Thorndike et al. (1975) as in CICE.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Snow fraction: f=h_snow/(h_snow+h_snowpatch), where h_snow is snow thickness and h_snowpatch =0.02 m, following CICE.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Elastic-viscous-plastic  rheology (Hunke and Dukowicz); evolution of thickness distribution due to ridging and other mechanical processes (Thorndike et al., 1975)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Multidimensional positive definite advection transport algorism (MPDATA; Smolarkiewicz, 1984)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>linear remapping</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Precipitation on sea ice falls as snow, thus has the energy corresponding to latent heat of fusion.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Growth and melt of the sea ice ocurrs at top or bottom of the sea ice, i.e. the sea ice develops vertically through thermodynamics.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Freezing at open ocean creates sea ice with a minimum thickness of 0.1 m. No sophisticated frazil ice process is considered.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Ice floe size is not represented.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The part of snow that is below freeboard becomes sea ice. Salt of the new snow ice is taken from the first layer of the ocean.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>No impact. Snow cover is diagnozed from snow depth (see 2.1.1.3).</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>MRI</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1783,6 +1871,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1828,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1872,17 +1974,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1924,7 +2037,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1956,9 +2069,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1990,6 +2121,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2165,24 +2314,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2198,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2206,7 +2355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2214,7 +2363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2222,27 +2371,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2250,7 +2399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2258,7 +2407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2266,7 +2415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2274,41 +2423,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="20">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="20">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2319,7 +2471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2343,11 +2495,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:2" ht="19">
+      <c r="A9" s="11" t="s">
+        <v>557</v>
+      </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2371,39 +2525,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2440,15 +2597,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2456,26 +2613,28 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2483,50 +2642,52 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2539,415 +2700,1623 @@
         <v>63</v>
       </c>
       <c r="AA25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AE25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AF25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AH25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AI25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AJ25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AK25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AL25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AK25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:38" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL26" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="24" customHeight="1">
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL28" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="24" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL29" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL30" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL31" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="24" customHeight="1">
+      <c r="A34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AL25" s="6" t="s">
+      <c r="B34" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="A28" s="12" t="s">
+    <row r="35" spans="1:29" ht="24" customHeight="1">
+      <c r="B35" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="12" t="s">
+    </row>
+    <row r="37" spans="1:29" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" ht="24" customHeight="1">
-      <c r="B29" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
+    <row r="38" spans="1:29" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
+    <row r="39" spans="1:29" ht="24" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="24" customHeight="1">
+      <c r="A42" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="46" spans="1:29" ht="24" customHeight="1">
+      <c r="A46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
+      <c r="B47" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="B59" s="11">
+        <f>360*362</f>
+        <v>130320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="B63" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="B76" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="B77" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="A80" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="B81" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="B82" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="B86" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="B91" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="A93" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="A94" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="B95" s="15">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="B99" s="15">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="A102" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="B103" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="A106" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="B107" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="B108" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="A111" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="B112" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="A114" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="A115" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="B116" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="178" customHeight="1">
+      <c r="B117" s="11"/>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="A119" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="A120" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="B121" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="A124" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="A125" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="B126" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="B127" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" ht="24" customHeight="1">
+      <c r="A130" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" ht="24" customHeight="1">
+      <c r="B131" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" ht="24" customHeight="1">
+      <c r="A133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" ht="24" customHeight="1">
+      <c r="A134" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="24" customHeight="1">
+      <c r="B135" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" ht="178" customHeight="1">
+      <c r="B136" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="24" customHeight="1">
+      <c r="A138" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" ht="24" customHeight="1">
+      <c r="A139" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="24" customHeight="1">
+      <c r="B140" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" ht="24" customHeight="1">
+      <c r="B141" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA141" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB141" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC141" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD141" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" ht="24" customHeight="1">
+      <c r="B142" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA142" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB142" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC142" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD142" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="24" customHeight="1">
+      <c r="B143" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA143" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB143" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC143" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD143" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="24" customHeight="1">
+      <c r="A145" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="A146" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="B147" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="B148" s="11"/>
+    </row>
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="A150" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="24" customHeight="1">
+      <c r="A151" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="B152" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1">
+      <c r="A154" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="A155" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
+      <c r="B156" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1">
+      <c r="B157" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>AA39:AC39</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B103 B99 B95" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B143" xr:uid="{00000000-0002-0000-0200-000007000000}">
+      <formula1>AA141:AD141</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152" xr:uid="{00000000-0002-0000-0200-000008000000}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>AA25:AL25</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="24" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
+      <c r="B31" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11">
         <v>60</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="AA33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
+      <c r="B38" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="178" customHeight="1">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="A43" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="B44" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="A47" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="B48" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="B49" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC49" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD49" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="178" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="B56" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1">
+      <c r="B57" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="178" customHeight="1">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1">
+      <c r="A61" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="B62" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>115</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
+      <c r="B66" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="B70" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>121</v>
+      <c r="B73" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+      <c r="B74" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="B75" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>125</v>
+      <c r="B78" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="14" t="s">
+      <c r="B79" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="178" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="B80" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B83" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="B84" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
+      <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>134</v>
+      <c r="A88" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
+      <c r="B89" s="13" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -2955,300 +4324,59 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="B102" s="11"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="178" customHeight="1">
+      <c r="B102" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>148</v>
+      <c r="A105" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="178" customHeight="1">
-      <c r="B111" s="11"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="B116" s="11"/>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="B120" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30" ht="24" customHeight="1">
-      <c r="B129" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" ht="178" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:30" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30" ht="24" customHeight="1">
-      <c r="B134" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-      <c r="AA135" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB135" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC135" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD135" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="137" spans="1:30" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:30" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="144" spans="1:30" ht="24" customHeight="1">
-      <c r="B144" s="11"/>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="B148" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="11"/>
+      <c r="B106" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="178" customHeight="1">
+      <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AL25</formula1>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AC33</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AD135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3256,692 +4384,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-      <c r="AA23" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
-      <c r="AA27" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="B49" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA49" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB49" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC49" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD49" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="B57" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="178" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="B62" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="B74" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="A83" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="B84" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
-      <c r="B85" s="11"/>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="178" customHeight="1">
-      <c r="B102" s="11"/>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
-      <c r="B107" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AD23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AD27</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>AA49:AD49</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3952,10 +4426,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -3963,10 +4437,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -3974,142 +4448,150 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>299</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="24" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-      <c r="AA15" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="AD15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>311</v>
+        <v>73</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4119,78 +4601,73 @@
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>AA32:AG32</formula1>
     </dataValidation>
   </dataValidations>
@@ -4199,35 +4676,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4238,10 +4717,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4249,10 +4728,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4260,203 +4739,207 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>345</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>354</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4464,26 +4947,28 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4491,15 +4976,15 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="178" customHeight="1">
@@ -4507,23 +4992,23 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4531,28 +5016,28 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="178" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -4560,57 +5045,59 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="178" customHeight="1">
-      <c r="B59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4618,15 +5105,15 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
@@ -4634,10 +5121,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -4645,152 +5132,162 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
-      <c r="B73" s="11"/>
+      <c r="B73" s="11" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B81" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="B85" s="11"/>
+      <c r="B85" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="AA93" s="6" t="s">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -4798,15 +5295,15 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="178" customHeight="1">
@@ -4814,79 +5311,83 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
-      <c r="B110" s="11"/>
+      <c r="B110" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="AA110" s="6" t="s">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B114" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -4894,15 +5395,15 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="178" customHeight="1">
@@ -4910,98 +5411,105 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="AA127" s="6" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
+      <c r="B135" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>553</v>
+      </c>
       <c r="AA135" s="6" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -5009,15 +5517,15 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:29" ht="178" customHeight="1">
@@ -5025,89 +5533,89 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
-      <c r="B148" s="11"/>
+      <c r="B148" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
-      <c r="B152" s="11" t="s">
-        <v>485</v>
-      </c>
+      <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5118,59 +5626,61 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
+      <c r="B165" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5178,15 +5688,15 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="178" customHeight="1">
@@ -5194,32 +5704,34 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="11"/>
+      <c r="B174" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5227,26 +5739,28 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="178" customHeight="1">
-      <c r="B179" s="11"/>
+      <c r="B179" s="11" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5254,114 +5768,68 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>517</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11" t="s">
-        <v>367</v>
+        <v>508</v>
       </c>
       <c r="AA187" s="6" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA19:AE19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B187 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B157 B110 B93 B31" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AC63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B174 B165 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>AA93:AD93</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
-      <formula1>AA110:AD110</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
-      <formula1>AA127:AC127</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AC135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
-      <formula1>AA152:AC152</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
-      <formula1>AA157:AD157</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
-      <formula1>AA187:AC187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5369,35 +5837,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5408,10 +5878,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5419,10 +5889,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5430,73 +5900,78 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>536</v>
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5505,27 +5980,27 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>530</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA15:AD15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yukimoto/Documents/研究計画・プロジェクト/CMIP6/Documentation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C28EAB1-6E6D-2B4C-89D7-2A56EC2AC0D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="1580" windowWidth="26240" windowHeight="22460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -21,12 +15,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="558">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -160,6 +154,9 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
+    <t>MRI.COM ver. 4.4</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>EVP rheology, 1-layer ice, thickness categories</t>
+  </si>
+  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -190,6 +190,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>The sea ice model of MRI.COM is based on the Los Alamos sea ice model (CICE; Hunke and Lipscomb, 2010): thermodynamics of Mellor and Kantha (1989) with one-layer ice (Semtner, 1976); dynamics of the elastic-viscous-plastic rheology (Hunke and Dukowicz, 1997) and ridging scheme by Thorndike et al. (1975). Five thickness categories are allowed within a grid cell (Lipscomb, 2001). See Tsujino et al. (2017) for details.</t>
+  </si>
+  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -214,12 +217,12 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
+    <t>Sea ice concentration</t>
+  </si>
+  <si>
     <t>Sea ice temperature</t>
   </si>
   <si>
-    <t>Sea ice concentration</t>
-  </si>
-  <si>
     <t>Sea ice thickness</t>
   </si>
   <si>
@@ -241,10 +244,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature</t>
-  </si>
-  <si>
-    <t>Snow depth</t>
+    <t>Snow temperature: Snow on ice temperature</t>
+  </si>
+  <si>
+    <t>Snow depth: Snow on ice thickness</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -271,10 +274,13 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10</t>
-  </si>
-  <si>
-    <t>Constant</t>
+    <t>Other: Tf = -0.0543 S where Tf is the freezing point in deg C and S is salinity in psu.</t>
+  </si>
+  <si>
+    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
+  </si>
+  <si>
+    <t>Constant: Constant value of seawater freezing point is used.</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -310,6 +316,9 @@
     <t>cmip6.seaice.key_properties.resolution.name</t>
   </si>
   <si>
+    <t>GONDOLA_100</t>
+  </si>
+  <si>
     <t>1.4.1.2 *</t>
   </si>
   <si>
@@ -320,6 +329,9 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
+  </si>
+  <si>
+    <t>100km</t>
   </si>
   <si>
     <t>1.4.1.3 *</t>
@@ -363,6 +375,9 @@
     <t>cmip6.seaice.key_properties.tuning_applied.description</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>1.5.1.2 *</t>
   </si>
   <si>
@@ -470,6 +485,9 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
   </si>
   <si>
+    <t>See 5.1.1.3 for albedos.</t>
+  </si>
+  <si>
     <t>1.7.1</t>
   </si>
   <si>
@@ -513,6 +531,9 @@
     <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
   </si>
   <si>
+    <t>Ocean surface tilt, melt pond, black carbon, tide, snow blowing</t>
+  </si>
+  <si>
     <t>1.8.1</t>
   </si>
   <si>
@@ -529,6 +550,9 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.conservation.description</t>
+  </si>
+  <si>
+    <t>Energy, mass and salt budgets are closed without any artificial correction in the sea ice model. Salinities for sea ice and snow are set to 4 and 0, respectively.</t>
   </si>
   <si>
     <t>1.8.1.2 *</t>
@@ -639,13 +663,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid</t>
-  </si>
-  <si>
-    <t>Own Grid</t>
+    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
+  </si>
+  <si>
+    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -666,7 +690,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid</t>
+    <t>Adaptive grid: Computational grid changes during the run</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -747,13 +771,16 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Zero-layer</t>
-  </si>
-  <si>
-    <t>Two-layers</t>
-  </si>
-  <si>
-    <t>Multi-layers</t>
+    <t>Other: One-layer</t>
+  </si>
+  <si>
+    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
+  </si>
+  <si>
+    <t>Multi-layers: Simulation uses more than two layers.</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -822,6 +849,9 @@
     <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
   </si>
   <si>
+    <t>6.0E-1, 1.4E0, 2.4E0, 3.6E0, 3.0E1 in m</t>
+  </si>
+  <si>
     <t>2.2.1.4 *</t>
   </si>
   <si>
@@ -832,6 +862,9 @@
   </si>
   <si>
     <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
+  </si>
+  <si>
+    <t>Lipscomb (2001) thickness category scheme based on the formulation of Thorndike et al. (1975) as in CICE.</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.1.5 </t>
@@ -894,6 +927,9 @@
     <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
   </si>
   <si>
+    <t>Snow fraction: f=h_snow/(h_snow+h_snowpatch), where h_snow is snow thickness and h_snowpatch =0.02 m, following CICE.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.3.1.4 </t>
   </si>
   <si>
@@ -930,6 +966,9 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
+    <t>Elastic-viscous-plastic  rheology (Hunke and Dukowicz); evolution of thickness distribution due to ridging and other mechanical processes (Thorndike et al., 1975)</t>
+  </si>
+  <si>
     <t>3.1.1.3 *</t>
   </si>
   <si>
@@ -942,7 +981,10 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping</t>
+    <t>Other: Multidimensional positive definite advection transport algorism (MPDATA; Smolarkiewicz, 1984)</t>
+  </si>
+  <si>
+    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
   </si>
   <si>
     <t>Prather</t>
@@ -963,6 +1005,9 @@
     <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
   </si>
   <si>
+    <t>Other: linear remapping</t>
+  </si>
+  <si>
     <t>3.1.1.5 *</t>
   </si>
   <si>
@@ -1017,10 +1062,10 @@
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic</t>
+    <t>Visco-plastic: VP</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic: EVP</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1077,12 +1122,12 @@
     <t>cmip6.seaice.thermodynamics.energy.enthalpy_formulation</t>
   </si>
   <si>
+    <t>Pure ice latent and sensible heat</t>
+  </si>
+  <si>
     <t>Pure ice latent heat (Semtner 0-layer)</t>
   </si>
   <si>
-    <t>Pure ice latent and sensible heat</t>
-  </si>
-  <si>
     <t>Pure ice latent and sensible heat + brine heat reservoir (Semtner 3-layer)</t>
   </si>
   <si>
@@ -1101,12 +1146,12 @@
     <t>cmip6.seaice.thermodynamics.energy.thermal_conductivity</t>
   </si>
   <si>
+    <t>Saline ice</t>
+  </si>
+  <si>
     <t>Pure ice</t>
   </si>
   <si>
-    <t>Saline ice</t>
-  </si>
-  <si>
     <t>4.2.1.3 *</t>
   </si>
   <si>
@@ -1119,12 +1164,12 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
   </si>
   <si>
+    <t>Conduction and radiation heat fluxes</t>
+  </si>
+  <si>
     <t>Conduction fluxes</t>
   </si>
   <si>
-    <t>Conduction and radiation heat fluxes</t>
-  </si>
-  <si>
     <t>Conduction, radiation and latent heat transport</t>
   </si>
   <si>
@@ -1140,13 +1185,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Heat Reservoir</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity</t>
+    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
+  </si>
+  <si>
+    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1174,6 +1219,9 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
   </si>
   <si>
+    <t>Precipitation on sea ice falls as snow, thus has the energy corresponding to latent heat of fusion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.7 </t>
   </si>
   <si>
@@ -1223,6 +1271,9 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
   </si>
   <si>
+    <t>Growth and melt of the sea ice ocurrs at top or bottom of the sea ice, i.e. the sea ice develops vertically through thermodynamics.</t>
+  </si>
+  <si>
     <t>4.3.1.3 *</t>
   </si>
   <si>
@@ -1263,6 +1314,9 @@
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
+  </si>
+  <si>
+    <t>Freezing at open ocean creates sea ice with a minimum thickness of 0.1 m. No sophisticated frazil ice process is considered.</t>
   </si>
   <si>
     <t>4.4.1</t>
@@ -1320,6 +1374,9 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
+    <t>Constant</t>
+  </si>
+  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1422,6 +1479,9 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.representation</t>
   </si>
   <si>
+    <t>Other: Ice floe size is not represented.</t>
+  </si>
+  <si>
     <t>Parameterised</t>
   </si>
   <si>
@@ -1551,6 +1611,9 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
   </si>
   <si>
+    <t>The part of snow that is below freeboard becomes sea ice. Salt of the new snow ice is taken from the first layer of the ocean.</t>
+  </si>
+  <si>
     <t>4.8.1.5 *</t>
   </si>
   <si>
@@ -1560,6 +1623,9 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
+    <t>No impact. Snow cover is diagnozed from snow depth (see 2.1.1.3).</t>
+  </si>
+  <si>
     <t>4.8.1.6 *</t>
   </si>
   <si>
@@ -1602,6 +1668,9 @@
     <t>cmip6.seaice.radiative_processes.overview</t>
   </si>
   <si>
+    <t>The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
+  </si>
+  <si>
     <t>5.1.1.3 *</t>
   </si>
   <si>
@@ -1614,13 +1683,16 @@
     <t>cmip6.seaice.radiative_processes.surface_albedo</t>
   </si>
   <si>
+    <t>Other: It depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
+  </si>
+  <si>
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized</t>
-  </si>
-  <si>
-    <t>Multi-band albedo</t>
+    <t>Parameterized: Sea ice albedo is parameterized.</t>
+  </si>
+  <si>
+    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1638,143 +1710,18 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category</t>
-  </si>
-  <si>
-    <t>MRI.COM ver. 4.4</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>It depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>GONDOLA_100</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>100km</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Tf = -0.0543 S where Tf is the freezing point in deg C and S is salinity in psu.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>6.0E-1, 1.4E0, 2.4E0, 3.6E0, 3.0E1 in m</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>EVP rheology, 1-layer ice, thickness categories</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>The sea ice model of MRI.COM is based on the Los Alamos sea ice model (CICE; Hunke and Lipscomb, 2010): thermodynamics of Mellor and Kantha (1989) with one-layer ice (Semtner, 1976); dynamics of the elastic-viscous-plastic rheology (Hunke and Dukowicz, 1997) and ridging scheme by Thorndike et al. (1975). Five thickness categories are allowed within a grid cell (Lipscomb, 2001). See Tsujino et al. (2017) for details.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>See 5.1.1.3 for albedos.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <r>
-      <t>Ocean surface tilt,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>melt pond, black carbon, tide, snow blowing</t>
-    </r>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Energy, mass and salt budgets are closed without any artificial correction in the sea ice model. Salinities for sea ice and snow are set to 4 and 0, respectively.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>One-layer</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Lipscomb (2001) thickness category scheme based on the formulation of Thorndike et al. (1975) as in CICE.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Snow fraction: f=h_snow/(h_snow+h_snowpatch), where h_snow is snow thickness and h_snowpatch =0.02 m, following CICE.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Elastic-viscous-plastic  rheology (Hunke and Dukowicz); evolution of thickness distribution due to ridging and other mechanical processes (Thorndike et al., 1975)</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Multidimensional positive definite advection transport algorism (MPDATA; Smolarkiewicz, 1984)</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>linear remapping</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Precipitation on sea ice falls as snow, thus has the energy corresponding to latent heat of fusion.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Growth and melt of the sea ice ocurrs at top or bottom of the sea ice, i.e. the sea ice develops vertically through thermodynamics.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Freezing at open ocean creates sea ice with a minimum thickness of 0.1 m. No sophisticated frazil ice process is considered.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Ice floe size is not represented.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>The part of snow that is below freeboard becomes sea ice. Salt of the new snow ice is taken from the first layer of the ocean.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>No impact. Snow cover is diagnozed from snow depth (see 2.1.1.3).</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>MRI</t>
-    <phoneticPr fontId="15"/>
+    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1871,20 +1818,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1930,7 +1863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1974,28 +1907,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2037,7 +1959,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2069,27 +1991,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2121,24 +2025,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2314,24 +2200,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2339,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2347,7 +2233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2355,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2363,7 +2249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2371,27 +2257,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2399,7 +2285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18">
+    <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2407,7 +2293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2415,7 +2301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2423,44 +2309,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2471,7 +2354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2495,13 +2378,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="11" t="s">
-        <v>557</v>
-      </c>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2525,42 +2406,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2597,15 +2475,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>532</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2613,28 +2491,28 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>539</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2642,52 +2520,52 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>540</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2697,357 +2575,354 @@
     </row>
     <row r="25" spans="1:38" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ26" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK26" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL26" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AA27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH27" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="AI27" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ27" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK27" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL27" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AA28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="AE28" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI28" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ28" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK28" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL28" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AA29" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="AB29" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI29" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ29" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK29" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL29" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AA30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="AD30" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI30" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ30" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK30" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL30" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AA31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE31" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="AF31" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI31" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ31" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK31" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL31" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>536</v>
+        <v>84</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -3055,20 +2930,20 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>40</v>
@@ -3079,23 +2954,23 @@
         <v>41</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>534</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -3103,61 +2978,61 @@
         <v>41</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>535</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11">
         <f>360*362</f>
-        <v>130320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -3165,28 +3040,28 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>538</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3194,23 +3069,23 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>538</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
@@ -3218,28 +3093,28 @@
         <v>41</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="B76" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>538</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -3247,28 +3122,28 @@
         <v>41</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="B81" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11" t="s">
-        <v>538</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
@@ -3276,15 +3151,15 @@
         <v>41</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
@@ -3292,95 +3167,95 @@
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="B91" s="13" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="15">
+      <c r="B95" s="11">
         <v>27500</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="15">
+      <c r="B99" s="11">
         <v>0.31</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="B103" s="15">
+      <c r="B103" s="11">
         <v>0.1</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -3388,41 +3263,41 @@
         <v>41</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="11" t="s">
-        <v>541</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="12" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="B112" s="13" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -3430,15 +3305,15 @@
         <v>41</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="B116" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="178" customHeight="1">
@@ -3446,10 +3321,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -3457,15 +3332,15 @@
         <v>41</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -3473,10 +3348,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -3484,41 +3359,41 @@
         <v>41</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>542</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:30" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:30" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:30" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:30" ht="24" customHeight="1">
@@ -3526,39 +3401,39 @@
         <v>41</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:30" ht="24" customHeight="1">
       <c r="B135" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:30" ht="178" customHeight="1">
       <c r="B136" s="11" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" spans="1:30" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:30" ht="24" customHeight="1">
       <c r="A139" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:30" ht="24" customHeight="1">
@@ -3568,61 +3443,61 @@
     </row>
     <row r="141" spans="1:30" ht="24" customHeight="1">
       <c r="B141" s="11" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AA141" s="6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AB141" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AC141" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AD141" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:30" ht="24" customHeight="1">
       <c r="B142" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AA142" s="6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AB142" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AC142" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AD142" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:30" ht="24" customHeight="1">
       <c r="B143" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AA143" s="6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AB143" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AC143" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AD143" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="A145" s="9" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
@@ -3630,15 +3505,15 @@
         <v>41</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="B147" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -3646,21 +3521,21 @@
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
@@ -3670,10 +3545,10 @@
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
@@ -3681,43 +3556,76 @@
         <v>41</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="11" t="s">
-        <v>538</v>
-      </c>
+      <c r="B157" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{00000000-0002-0000-0200-000001000000}">
+  <dataValidations count="17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AL25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AL26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AL27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AL28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>AA29:AL29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AL30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AL31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>AA39:AC39</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B103 B99 B95" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B143" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141">
       <formula1>AA141:AD141</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
+      <formula1>AA142:AD142</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143">
+      <formula1>AA143:AD143</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>AA25:AL25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3725,37 +3633,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3766,10 +3672,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3777,10 +3683,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3788,15 +3694,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3804,142 +3710,142 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -3949,21 +3855,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3973,10 +3879,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3984,15 +3890,15 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
@@ -4000,34 +3906,34 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -4037,41 +3943,38 @@
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>544</v>
+        <v>246</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -4079,10 +3982,10 @@
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
@@ -4090,15 +3993,15 @@
         <v>41</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="178" customHeight="1">
@@ -4106,34 +4009,34 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4143,21 +4046,21 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -4167,10 +4070,10 @@
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4178,28 +4081,28 @@
         <v>41</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>537</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -4207,28 +4110,28 @@
         <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>545</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4236,15 +4139,15 @@
         <v>41</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="178" customHeight="1">
@@ -4252,34 +4155,34 @@
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -4289,21 +4192,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4313,10 +4216,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -4324,28 +4227,28 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="178" customHeight="1">
       <c r="B102" s="11" t="s">
-        <v>546</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4353,31 +4256,54 @@
         <v>41</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="178" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AD23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AD27</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>AA49:AD49</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4385,37 +4311,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4426,10 +4350,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -4437,10 +4361,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -4448,150 +4372,144 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>547</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>548</v>
+        <v>315</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>549</v>
+        <v>323</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4601,73 +4519,76 @@
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="B32" s="11" t="s">
-        <v>326</v>
-      </c>
+      <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>AA19:AD19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AC28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>AA32:AG32</formula1>
     </dataValidation>
   </dataValidations>
@@ -4676,37 +4597,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AE187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4717,10 +4636,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4728,10 +4647,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4739,15 +4658,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4755,178 +4674,178 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4936,10 +4855,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4947,28 +4866,28 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>550</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4976,15 +4895,15 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="178" customHeight="1">
@@ -4992,23 +4911,23 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -5016,28 +4935,28 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="178" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -5045,59 +4964,59 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="178" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>551</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -5105,15 +5024,15 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
@@ -5121,10 +5040,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -5132,52 +5051,52 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
@@ -5187,21 +5106,21 @@
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -5211,70 +5130,70 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -5284,10 +5203,10 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -5295,15 +5214,15 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="178" customHeight="1">
@@ -5311,70 +5230,70 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11" t="s">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AA110" s="6" t="s">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -5384,10 +5303,10 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -5395,15 +5314,15 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="178" customHeight="1">
@@ -5411,105 +5330,102 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="AA127" s="6" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>553</v>
+        <v>480</v>
       </c>
       <c r="AA135" s="6" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -5517,15 +5433,15 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:29" ht="178" customHeight="1">
@@ -5533,34 +5449,34 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -5570,52 +5486,52 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5626,48 +5542,48 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5677,10 +5593,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5688,15 +5604,15 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="178" customHeight="1">
@@ -5704,21 +5620,21 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5728,10 +5644,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5739,28 +5655,28 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="178" customHeight="1">
       <c r="B179" s="11" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5768,68 +5684,112 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
-      <c r="B187" s="11" t="s">
-        <v>508</v>
-      </c>
+      <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>AA19:AE19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B187 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B157 B110 B93 B31" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AD31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B174 B165 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AC63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>AA93:AD93</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
+      <formula1>AA110:AD110</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
+      <formula1>AA127:AC127</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+      <formula1>AA135:AC135</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
+      <formula1>AA152:AC152</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
+      <formula1>AA157:AD157</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
+      <formula1>AA187:AC187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5837,37 +5797,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5878,10 +5836,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5889,10 +5847,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5900,78 +5858,75 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5980,27 +5935,27 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>530</v>
-      </c>
+      <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AD15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="546">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -154,7 +154,7 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
-    <t>MRI.COM ver. 4.4</t>
+    <t>Sea Ice (MRI.COM3)</t>
   </si>
   <si>
     <t>1.1.1.2 *</t>
@@ -172,9 +172,6 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>EVP rheology, 1-layer ice, thickness categories</t>
-  </si>
-  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>The sea ice model of MRI.COM is based on the Los Alamos sea ice model (CICE; Hunke and Lipscomb, 2010): thermodynamics of Mellor and Kantha (1989) with one-layer ice (Semtner, 1976); dynamics of the elastic-viscous-plastic rheology (Hunke and Dukowicz, 1997) and ridging scheme by Thorndike et al. (1975). Five thickness categories are allowed within a grid cell (Lipscomb, 2001). See Tsujino et al. (2017) for details.</t>
-  </si>
-  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -217,12 +211,15 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
+    <t>Other: concentration, ice thickness, snow thickness, ice temperature, horizontal velocity</t>
+  </si>
+  <si>
+    <t>Sea ice temperature</t>
+  </si>
+  <si>
     <t>Sea ice concentration</t>
   </si>
   <si>
-    <t>Sea ice temperature</t>
-  </si>
-  <si>
     <t>Sea ice thickness</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>Other: Tf = -0.0543 S where Tf is the freezing point in deg C and S is salinity in psu.</t>
-  </si>
-  <si>
     <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>cmip6.seaice.key_properties.resolution.name</t>
   </si>
   <si>
-    <t>GONDOLA_100</t>
-  </si>
-  <si>
     <t>1.4.1.2 *</t>
   </si>
   <si>
@@ -329,9 +320,6 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
-  </si>
-  <si>
-    <t>100km</t>
   </si>
   <si>
     <t>1.4.1.3 *</t>
@@ -375,9 +363,6 @@
     <t>cmip6.seaice.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>1.5.1.2 *</t>
   </si>
   <si>
@@ -485,9 +470,6 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
   </si>
   <si>
-    <t>See 5.1.1.3 for albedos.</t>
-  </si>
-  <si>
     <t>1.7.1</t>
   </si>
   <si>
@@ -531,9 +513,6 @@
     <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
   </si>
   <si>
-    <t>Ocean surface tilt, melt pond, black carbon, tide, snow blowing</t>
-  </si>
-  <si>
     <t>1.8.1</t>
   </si>
   <si>
@@ -550,9 +529,6 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.conservation.description</t>
-  </si>
-  <si>
-    <t>Energy, mass and salt budgets are closed without any artificial correction in the sea ice model. Salinities for sea ice and snow are set to 4 and 0, respectively.</t>
   </si>
   <si>
     <t>1.8.1.2 *</t>
@@ -771,7 +747,7 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Other: One-layer</t>
+    <t>Other: 5</t>
   </si>
   <si>
     <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
@@ -849,9 +825,6 @@
     <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
   </si>
   <si>
-    <t>6.0E-1, 1.4E0, 2.4E0, 3.6E0, 3.0E1 in m</t>
-  </si>
-  <si>
     <t>2.2.1.4 *</t>
   </si>
   <si>
@@ -862,9 +835,6 @@
   </si>
   <si>
     <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
-  </si>
-  <si>
-    <t>Lipscomb (2001) thickness category scheme based on the formulation of Thorndike et al. (1975) as in CICE.</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.1.5 </t>
@@ -927,9 +897,6 @@
     <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
   </si>
   <si>
-    <t>Snow fraction: f=h_snow/(h_snow+h_snowpatch), where h_snow is snow thickness and h_snowpatch =0.02 m, following CICE.</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.3.1.4 </t>
   </si>
   <si>
@@ -966,7 +933,7 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
-    <t>Elastic-viscous-plastic  rheology (Hunke and Dukowicz); evolution of thickness distribution due to ridging and other mechanical processes (Thorndike et al., 1975)</t>
+    <t>General Attributes / advection : MPDATA</t>
   </si>
   <si>
     <t>3.1.1.3 *</t>
@@ -981,9 +948,6 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Other: Multidimensional positive definite advection transport algorism (MPDATA; Smolarkiewicz, 1984)</t>
-  </si>
-  <si>
     <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
   </si>
   <si>
@@ -1020,6 +984,9 @@
     <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
   </si>
   <si>
+    <t>Other: hibler(1979) type</t>
+  </si>
+  <si>
     <t>Hibler 1979</t>
   </si>
   <si>
@@ -1056,6 +1023,9 @@
     <t>cmip6.seaice.dynamics.rheology</t>
   </si>
   <si>
+    <t>Other: evp</t>
+  </si>
+  <si>
     <t>Free-drift</t>
   </si>
   <si>
@@ -1101,6 +1071,10 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
+    <t>General attributes / surface albedo: _x000D_
+The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
+  </si>
+  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -1122,12 +1096,12 @@
     <t>cmip6.seaice.thermodynamics.energy.enthalpy_formulation</t>
   </si>
   <si>
+    <t>Pure ice latent heat (Semtner 0-layer)</t>
+  </si>
+  <si>
     <t>Pure ice latent and sensible heat</t>
   </si>
   <si>
-    <t>Pure ice latent heat (Semtner 0-layer)</t>
-  </si>
-  <si>
     <t>Pure ice latent and sensible heat + brine heat reservoir (Semtner 3-layer)</t>
   </si>
   <si>
@@ -1146,12 +1120,12 @@
     <t>cmip6.seaice.thermodynamics.energy.thermal_conductivity</t>
   </si>
   <si>
+    <t>Pure ice</t>
+  </si>
+  <si>
     <t>Saline ice</t>
   </si>
   <si>
-    <t>Pure ice</t>
-  </si>
-  <si>
     <t>4.2.1.3 *</t>
   </si>
   <si>
@@ -1164,12 +1138,15 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
   </si>
   <si>
+    <t>Other: one layer</t>
+  </si>
+  <si>
+    <t>Conduction fluxes</t>
+  </si>
+  <si>
     <t>Conduction and radiation heat fluxes</t>
   </si>
   <si>
-    <t>Conduction fluxes</t>
-  </si>
-  <si>
     <t>Conduction, radiation and latent heat transport</t>
   </si>
   <si>
@@ -1185,10 +1162,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
+    <t>Other: parametrized (calculated in seaice)</t>
+  </si>
+  <si>
+    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
+  </si>
+  <si>
     <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
-  </si>
-  <si>
-    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
   </si>
   <si>
     <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
@@ -1219,9 +1199,6 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
   </si>
   <si>
-    <t>Precipitation on sea ice falls as snow, thus has the energy corresponding to latent heat of fusion.</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.2.1.7 </t>
   </si>
   <si>
@@ -1271,9 +1248,6 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
   </si>
   <si>
-    <t>Growth and melt of the sea ice ocurrs at top or bottom of the sea ice, i.e. the sea ice develops vertically through thermodynamics.</t>
-  </si>
-  <si>
     <t>4.3.1.3 *</t>
   </si>
   <si>
@@ -1314,9 +1288,6 @@
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
-  </si>
-  <si>
-    <t>Freezing at open ocean creates sea ice with a minimum thickness of 0.1 m. No sophisticated frazil ice process is considered.</t>
   </si>
   <si>
     <t>4.4.1</t>
@@ -1479,9 +1450,6 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.representation</t>
   </si>
   <si>
-    <t>Other: Ice floe size is not represented.</t>
-  </si>
-  <si>
     <t>Parameterised</t>
   </si>
   <si>
@@ -1527,6 +1495,9 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
   </si>
   <si>
+    <t>Other: no</t>
+  </si>
+  <si>
     <t>Flocco and Feltham (2010)</t>
   </si>
   <si>
@@ -1611,9 +1582,6 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
   </si>
   <si>
-    <t>The part of snow that is below freeboard becomes sea ice. Salt of the new snow ice is taken from the first layer of the ocean.</t>
-  </si>
-  <si>
     <t>4.8.1.5 *</t>
   </si>
   <si>
@@ -1623,7 +1591,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
-    <t>No impact. Snow cover is diagnozed from snow depth (see 2.1.1.3).</t>
+    <t>Snow-ice</t>
   </si>
   <si>
     <t>4.8.1.6 *</t>
@@ -1668,9 +1636,6 @@
     <t>cmip6.seaice.radiative_processes.overview</t>
   </si>
   <si>
-    <t>The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
-  </si>
-  <si>
     <t>5.1.1.3 *</t>
   </si>
   <si>
@@ -1683,7 +1648,7 @@
     <t>cmip6.seaice.radiative_processes.surface_albedo</t>
   </si>
   <si>
-    <t>Other: It depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
+    <t>Other: it depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
   </si>
   <si>
     <t>Delta-Eddington</t>
@@ -2429,7 +2394,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD157"/>
+  <dimension ref="A1:XFD149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2503,16 +2468,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2520,52 +2483,50 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="B16" s="11"/>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2575,1056 +2536,719 @@
     </row>
     <row r="25" spans="1:38" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>65</v>
       </c>
       <c r="AC25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AE25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AF25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AH25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AI25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AJ25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AK25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AK25" s="6" t="s">
+      <c r="AL25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AL25" s="6" t="s">
+    </row>
+    <row r="28" spans="1:38" ht="24" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" ht="24" customHeight="1">
-      <c r="B26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK26" s="6" t="s">
+      <c r="B28" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="24" customHeight="1">
+      <c r="B29" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="24" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="24" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="24" customHeight="1">
+      <c r="B33" s="11"/>
+      <c r="AA33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC33" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AL26" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
+    </row>
+    <row r="35" spans="1:29" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="24" customHeight="1">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1">
+      <c r="A40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1">
+      <c r="B41" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1">
+      <c r="A48" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="A56" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1">
+      <c r="A60" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
+      <c r="B61" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="178" customHeight="1">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="B66" s="11"/>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="A69" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="B70" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="B71" s="11"/>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="B75" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="B80" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="B85" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="178" customHeight="1">
+      <c r="B111" s="11"/>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="A113" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="A114" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="B115" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="B116" s="11"/>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="A118" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="A119" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="B120" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="B121" s="11"/>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="A124" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="B125" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="A127" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="A128" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" ht="24" customHeight="1">
+      <c r="B129" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" ht="178" customHeight="1">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="132" spans="1:30" ht="24" customHeight="1">
+      <c r="A132" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" ht="24" customHeight="1">
+      <c r="A133" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" ht="24" customHeight="1">
+      <c r="B134" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="24" customHeight="1">
+      <c r="B135" s="11"/>
+      <c r="AA135" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB135" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC135" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD135" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AA27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL27" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="B28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL28" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" ht="24" customHeight="1">
-      <c r="B29" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL29" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL30" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" ht="24" customHeight="1">
-      <c r="B31" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI31" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL31" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="B35" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="24" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
-    </row>
-    <row r="46" spans="1:29" ht="24" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="B47" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="14" t="s">
+    </row>
+    <row r="137" spans="1:30" ht="24" customHeight="1">
+      <c r="A137" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="24" customHeight="1">
+      <c r="A138" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="B51" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="14" t="s">
+      <c r="B138" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" ht="24" customHeight="1">
+      <c r="B139" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="24" customHeight="1">
+      <c r="B140" s="11"/>
+    </row>
+    <row r="142" spans="1:30" ht="24" customHeight="1">
+      <c r="A142" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="24" customHeight="1">
+      <c r="A143" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" ht="24" customHeight="1">
+      <c r="B144" s="11"/>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="A146" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="A147" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="11">
-        <f>360*362</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="B67" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
-      <c r="B68" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="B72" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="A75" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="8" t="s">
+      <c r="B147" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="B148" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="B77" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="11">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="11">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="A101" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="B103" s="11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="B107" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="B108" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="B112" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="B116" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="178" customHeight="1">
-      <c r="B117" s="11"/>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="B127" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" ht="24" customHeight="1">
-      <c r="A130" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:30" ht="24" customHeight="1">
-      <c r="B131" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30" ht="24" customHeight="1">
-      <c r="A134" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" ht="24" customHeight="1">
-      <c r="B135" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:30" ht="178" customHeight="1">
-      <c r="B136" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" ht="24" customHeight="1">
-      <c r="A139" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" ht="24" customHeight="1">
-      <c r="B140" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:30" ht="24" customHeight="1">
-      <c r="B141" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA141" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB141" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC141" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD141" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="142" spans="1:30" ht="24" customHeight="1">
-      <c r="B142" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA142" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB142" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC142" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD142" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" ht="24" customHeight="1">
-      <c r="B143" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA143" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB143" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC143" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD143" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="B147" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="B148" s="11"/>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="A151" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="B152" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="11"/>
+    <row r="149" spans="1:3" ht="24" customHeight="1">
+      <c r="B149" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="17">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AL25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AL26</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AC33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AL27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AL28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AL29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AL30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AL31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AC39</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141">
-      <formula1>AA141:AD141</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+      <formula1>AA135:AD135</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
-      <formula1>AA142:AD142</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143">
-      <formula1>AA143:AD143</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3648,20 +3272,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3672,10 +3296,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3683,10 +3307,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3694,15 +3318,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3710,179 +3334,171 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>217</v>
-      </c>
+      <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>224</v>
-      </c>
+      <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11">
-        <v>1800</v>
-      </c>
+      <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11">
-        <v>60</v>
-      </c>
+      <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3890,15 +3506,15 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
@@ -3906,34 +3522,34 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -3943,38 +3559,38 @@
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -3982,10 +3598,10 @@
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
@@ -3993,15 +3609,15 @@
         <v>41</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="178" customHeight="1">
@@ -4009,71 +3625,67 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B66" s="11"/>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="11">
-        <v>5</v>
-      </c>
+      <c r="B70" s="11"/>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4081,10 +3693,10 @@
         <v>41</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
@@ -4093,16 +3705,14 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11" t="s">
-        <v>272</v>
-      </c>
+      <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -4110,28 +3720,26 @@
         <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11" t="s">
-        <v>277</v>
-      </c>
+      <c r="B80" s="11"/>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4139,15 +3747,15 @@
         <v>41</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="178" customHeight="1">
@@ -4155,71 +3763,67 @@
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B93" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11">
-        <v>1</v>
-      </c>
+      <c r="B97" s="11"/>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -4227,28 +3831,26 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="178" customHeight="1">
-      <c r="B102" s="11" t="s">
-        <v>297</v>
-      </c>
+      <c r="B102" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4256,15 +3858,15 @@
         <v>41</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="178" customHeight="1">
@@ -4326,20 +3928,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4350,10 +3952,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -4361,10 +3963,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -4372,144 +3974,142 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>315</v>
-      </c>
+      <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4519,59 +4119,61 @@
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="AA32" s="6" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4612,20 +4214,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4636,10 +4238,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4647,10 +4249,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4658,207 +4260,203 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>362</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>370</v>
-      </c>
+      <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11">
-        <v>4</v>
-      </c>
+      <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4866,28 +4464,26 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11" t="s">
-        <v>394</v>
-      </c>
+      <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4895,15 +4491,15 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="178" customHeight="1">
@@ -4911,23 +4507,23 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4935,28 +4531,28 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="178" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -4964,59 +4560,57 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="178" customHeight="1">
-      <c r="B59" s="11" t="s">
-        <v>411</v>
-      </c>
+      <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -5024,15 +4618,15 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
@@ -5040,10 +4634,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -5051,162 +4645,152 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
-      <c r="B73" s="11" t="s">
-        <v>426</v>
-      </c>
+      <c r="B73" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
-      <c r="B81" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B81" s="11"/>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="B85" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
-      <c r="B93" s="11" t="s">
-        <v>445</v>
-      </c>
+      <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
-      <c r="B97" s="11">
-        <v>4</v>
-      </c>
+      <c r="B97" s="11"/>
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -5214,15 +4798,15 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="178" customHeight="1">
@@ -5230,83 +4814,79 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
-      <c r="B110" s="11" t="s">
-        <v>445</v>
-      </c>
+      <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
-      <c r="B114" s="11">
-        <v>4</v>
-      </c>
+      <c r="B114" s="11"/>
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -5314,15 +4894,15 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="178" customHeight="1">
@@ -5330,102 +4910,98 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
-      <c r="B127" s="11" t="s">
-        <v>472</v>
-      </c>
+      <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="11" t="s">
-        <v>480</v>
-      </c>
+      <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -5433,15 +5009,15 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:29" ht="178" customHeight="1">
@@ -5449,89 +5025,89 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
-      <c r="B148" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B148" s="11"/>
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="B152" s="11" t="s">
+        <v>485</v>
+      </c>
       <c r="AA152" s="6" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5542,61 +5118,59 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="B165" s="11"/>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5604,15 +5178,15 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="178" customHeight="1">
@@ -5620,34 +5194,32 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B174" s="11"/>
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5655,28 +5227,26 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="178" customHeight="1">
-      <c r="B179" s="11" t="s">
-        <v>524</v>
-      </c>
+      <c r="B179" s="11"/>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5684,46 +5254,48 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
-      <c r="B187" s="11"/>
+      <c r="B187" s="11" t="s">
+        <v>367</v>
+      </c>
       <c r="AA187" s="6" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5812,20 +5384,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5836,10 +5408,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5847,10 +5419,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5858,75 +5430,73 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>543</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5937,16 +5507,16 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_seaice.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/surakawa/ES-DOC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F0EF54-39A3-4B4D-BEEC-00A40C9A2ACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3340" yWindow="1580" windowWidth="26240" windowHeight="22460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="557">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -154,9 +160,6 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
-    <t>Sea Ice (MRI.COM3)</t>
-  </si>
-  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -211,9 +214,6 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
-    <t>Other: concentration, ice thickness, snow thickness, ice temperature, horizontal velocity</t>
-  </si>
-  <si>
     <t>Sea ice temperature</t>
   </si>
   <si>
@@ -241,10 +241,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature: Snow on ice temperature</t>
-  </si>
-  <si>
-    <t>Snow depth: Snow on ice thickness</t>
+    <t>Snow temperature</t>
+  </si>
+  <si>
+    <t>Snow depth</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -271,10 +271,10 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
-  </si>
-  <si>
-    <t>Constant: Constant value of seawater freezing point is used.</t>
+    <t>TEOS-10</t>
+  </si>
+  <si>
+    <t>Constant</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -639,13 +639,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
-  </si>
-  <si>
-    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
+    <t>Ocean grid</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid</t>
+  </si>
+  <si>
+    <t>Own Grid</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -666,7 +666,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid: Computational grid changes during the run</t>
+    <t>Adaptive grid</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -747,16 +747,13 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Other: 5</t>
-  </si>
-  <si>
-    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
-  </si>
-  <si>
-    <t>Multi-layers: Simulation uses more than two layers.</t>
+    <t>Zero-layer</t>
+  </si>
+  <si>
+    <t>Two-layers</t>
+  </si>
+  <si>
+    <t>Multi-layers</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -933,9 +930,6 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
-    <t>General Attributes / advection : MPDATA</t>
-  </si>
-  <si>
     <t>3.1.1.3 *</t>
   </si>
   <si>
@@ -948,7 +942,7 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
+    <t>Incremental Re-mapping</t>
   </si>
   <si>
     <t>Prather</t>
@@ -969,9 +963,6 @@
     <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
   </si>
   <si>
-    <t>Other: linear remapping</t>
-  </si>
-  <si>
     <t>3.1.1.5 *</t>
   </si>
   <si>
@@ -984,9 +975,6 @@
     <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
   </si>
   <si>
-    <t>Other: hibler(1979) type</t>
-  </si>
-  <si>
     <t>Hibler 1979</t>
   </si>
   <si>
@@ -1023,19 +1011,16 @@
     <t>cmip6.seaice.dynamics.rheology</t>
   </si>
   <si>
-    <t>Other: evp</t>
-  </si>
-  <si>
     <t>Free-drift</t>
   </si>
   <si>
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic: VP</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic: EVP</t>
+    <t>Visco-plastic</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1071,10 +1056,6 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
-    <t>General attributes / surface albedo: _x000D_
-The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
-  </si>
-  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -1138,9 +1119,6 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
   </si>
   <si>
-    <t>Other: one layer</t>
-  </si>
-  <si>
     <t>Conduction fluxes</t>
   </si>
   <si>
@@ -1162,16 +1140,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Other: parametrized (calculated in seaice)</t>
-  </si>
-  <si>
-    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
+    <t>Heat Reservoir</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1345,9 +1320,6 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
-    <t>Constant</t>
-  </si>
-  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1495,9 +1467,6 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
   </si>
   <si>
-    <t>Other: no</t>
-  </si>
-  <si>
     <t>Flocco and Feltham (2010)</t>
   </si>
   <si>
@@ -1591,9 +1560,6 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
-    <t>Snow-ice</t>
-  </si>
-  <si>
     <t>4.8.1.6 *</t>
   </si>
   <si>
@@ -1648,16 +1614,13 @@
     <t>cmip6.seaice.radiative_processes.surface_albedo</t>
   </si>
   <si>
-    <t>Other: it depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
-  </si>
-  <si>
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized: Sea ice albedo is parameterized.</t>
-  </si>
-  <si>
-    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
+    <t>Parameterized</t>
+  </si>
+  <si>
+    <t>Multi-band albedo</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1675,18 +1638,139 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
+    <t>Ice radiation transmission per category</t>
+  </si>
+  <si>
+    <t>MRI.COM ver. 4.4</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>It depends on amounts (depths) of ice or snow, temperature, and pollution due to aerosol deposition. see also additional information. this is calculated on atmospheric grid.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>GONDOLA_100</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>100km</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Tf = -0.0543 S where Tf is the freezing point in deg C and S is salinity in psu.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>6.0E-1, 1.4E0, 2.4E0, 3.6E0, 3.0E1 in m</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>EVP rheology, 1-layer ice, thickness categories</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The sea ice model of MRI.COM is based on the Los Alamos sea ice model (CICE; Hunke and Lipscomb, 2010): thermodynamics of Mellor and Kantha (1989) with one-layer ice (Semtner, 1976); dynamics of the elastic-viscous-plastic rheology (Hunke and Dukowicz, 1997) and ridging scheme by Thorndike et al. (1975). Five thickness categories are allowed within a grid cell (Lipscomb, 2001). See Tsujino et al. (2017) for details.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>See 5.1.1.3 for albedos.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>Ocean surface tilt,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>melt pond, black carbon, tide, snow blowing</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Energy, mass and salt budgets are closed without any artificial correction in the sea ice model. Salinities for sea ice and snow are set to 4 and 0, respectively.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>One-layer</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Lipscomb (2001) thickness category scheme based on the formulation of Thorndike et al. (1975) as in CICE.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Snow fraction: f=h_snow/(h_snow+h_snowpatch), where h_snow is snow thickness and h_snowpatch =0.02 m, following CICE.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Elastic-viscous-plastic  rheology (Hunke and Dukowicz); evolution of thickness distribution due to ridging and other mechanical processes (Thorndike et al., 1975)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Multidimensional positive definite advection transport algorism (MPDATA; Smolarkiewicz, 1984)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>linear remapping</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Precipitation on sea ice falls as snow, thus has the energy corresponding to latent heat of fusion.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Growth and melt of the sea ice ocurrs at top or bottom of the sea ice, i.e. the sea ice develops vertically through thermodynamics.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Freezing at open ocean creates sea ice with a minimum thickness of 0.1 m. No sophisticated frazil ice process is considered.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Ice floe size is not represented.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The part of snow that is below freeboard becomes sea ice. Salt of the new snow ice is taken from the first layer of the ocean.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>No impact. Snow cover is diagnozed from snow depth (see 2.1.1.3).</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The formulation of sea-ice surface albedo is fundamentally similar to that in the Los Alamos sea ice model CICE (Hunke and Lipscomb, 2001). Both the ice albedo and the snow albedo are estimated. The sea-ice surface albedo is determined as an average weighted by the snow cover percentage, which depends on the snow amount. However, the parameterization of Aoki and Tanaka (2008), who account for the albedo decline due to pollution by aerosol deposition, is applied to the estimation of snow albedo. Moreover, the effect of permeation on albedo is taken into account for both ice and snow for visible and near-infrared wavelengths, respectively.</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1783,6 +1867,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1828,7 +1926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1872,17 +1970,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1924,7 +2033,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1956,9 +2065,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1990,6 +2117,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2165,24 +2310,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +2335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2198,7 +2343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2206,7 +2351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2214,7 +2359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2222,27 +2367,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2250,7 +2395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2258,7 +2403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2266,7 +2411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2274,41 +2419,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="20">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="20">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2319,7 +2465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2343,11 +2489,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2371,39 +2517,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2440,15 +2589,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2456,26 +2605,28 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2483,50 +2634,52 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2539,415 +2692,1623 @@
         <v>63</v>
       </c>
       <c r="AA25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AE25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AF25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AH25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AI25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AJ25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AK25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AL25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AK25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:38" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL26" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="24" customHeight="1">
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL28" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="24" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL29" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL30" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL31" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="24" customHeight="1">
+      <c r="A34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AL25" s="6" t="s">
+      <c r="B34" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="A28" s="12" t="s">
+    <row r="35" spans="1:29" ht="24" customHeight="1">
+      <c r="B35" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="12" t="s">
+    </row>
+    <row r="37" spans="1:29" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" ht="24" customHeight="1">
-      <c r="B29" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
+    <row r="38" spans="1:29" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
+    <row r="39" spans="1:29" ht="24" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="24" customHeight="1">
+      <c r="A42" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="46" spans="1:29" ht="24" customHeight="1">
+      <c r="A46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
+      <c r="B47" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="B59" s="11">
+        <f>360*362</f>
+        <v>130320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="B63" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="B76" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="B77" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="A80" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="B81" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="B82" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="B86" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="B91" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="A93" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="A94" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="B95" s="15">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="B99" s="15">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="A102" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="B103" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="A106" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="B107" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="B108" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="A111" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="B112" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="A114" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="A115" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="B116" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="178" customHeight="1">
+      <c r="B117" s="11"/>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="A119" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="A120" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="B121" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="A124" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="A125" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="B126" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="B127" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" ht="24" customHeight="1">
+      <c r="A130" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" ht="24" customHeight="1">
+      <c r="B131" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" ht="24" customHeight="1">
+      <c r="A133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" ht="24" customHeight="1">
+      <c r="A134" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="24" customHeight="1">
+      <c r="B135" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" ht="178" customHeight="1">
+      <c r="B136" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="24" customHeight="1">
+      <c r="A138" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" ht="24" customHeight="1">
+      <c r="A139" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="24" customHeight="1">
+      <c r="B140" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" ht="24" customHeight="1">
+      <c r="B141" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA141" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB141" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC141" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD141" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" ht="24" customHeight="1">
+      <c r="B142" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA142" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB142" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC142" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD142" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="24" customHeight="1">
+      <c r="B143" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA143" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB143" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC143" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD143" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="24" customHeight="1">
+      <c r="A145" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="A146" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="B147" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="B148" s="11"/>
+    </row>
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="A150" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="24" customHeight="1">
+      <c r="A151" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="B152" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1">
+      <c r="A154" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="A155" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
+      <c r="B156" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1">
+      <c r="B157" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>AA39:AC39</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B103 B99 B95" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B143" xr:uid="{00000000-0002-0000-0200-000007000000}">
+      <formula1>AA141:AD141</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152" xr:uid="{00000000-0002-0000-0200-000008000000}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>AA25:AL25</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="24" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
+      <c r="B31" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11">
         <v>60</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="AA33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
+      <c r="B38" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="178" customHeight="1">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="A43" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="B44" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="A47" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="B48" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="B49" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC49" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD49" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="178" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="B56" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1">
+      <c r="B57" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="178" customHeight="1">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1">
+      <c r="A61" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="B62" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>115</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
+      <c r="B66" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="B70" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>121</v>
+      <c r="B73" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+      <c r="B74" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="B75" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>125</v>
+      <c r="B78" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="14" t="s">
+      <c r="B79" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="178" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="B80" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B83" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="B84" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
+      <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>134</v>
+      <c r="A88" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
+      <c r="B89" s="13" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -2955,300 +4316,59 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="B102" s="11"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="178" customHeight="1">
+      <c r="B102" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>148</v>
+      <c r="A105" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="178" customHeight="1">
-      <c r="B111" s="11"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="B116" s="11"/>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="B120" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30" ht="24" customHeight="1">
-      <c r="B129" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" ht="178" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:30" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30" ht="24" customHeight="1">
-      <c r="B134" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-      <c r="AA135" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB135" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC135" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD135" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="137" spans="1:30" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:30" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="144" spans="1:30" ht="24" customHeight="1">
-      <c r="B144" s="11"/>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="B148" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="11"/>
+      <c r="B106" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="178" customHeight="1">
+      <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AL25</formula1>
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AC33</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AD135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3256,692 +4376,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-      <c r="AA23" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
-      <c r="AA27" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="B49" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA49" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB49" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC49" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD49" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="B57" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="178" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="B62" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="B74" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="A83" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="B84" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
-      <c r="B85" s="11"/>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="178" customHeight="1">
-      <c r="B102" s="11"/>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
-      <c r="B107" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AD23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AD27</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>AA49:AD49</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3952,10 +4418,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -3963,10 +4429,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -3974,142 +4440,150 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>299</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="24" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-      <c r="AA15" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="AD15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>311</v>
+        <v>73</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4119,78 +4593,73 @@
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>AA32:AG32</formula1>
     </dataValidation>
   </dataValidations>
@@ -4199,35 +4668,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A59" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4238,10 +4709,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4249,10 +4720,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4260,203 +4731,207 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>345</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>354</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4464,26 +4939,28 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4491,15 +4968,15 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="178" customHeight="1">
@@ -4507,23 +4984,23 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4531,28 +5008,28 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="178" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -4560,57 +5037,59 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="178" customHeight="1">
-      <c r="B59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4618,15 +5097,15 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
@@ -4634,10 +5113,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -4645,152 +5124,162 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
-      <c r="B73" s="11"/>
+      <c r="B73" s="11" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B81" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="B85" s="11"/>
+      <c r="B85" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="AA93" s="6" t="s">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -4798,15 +5287,15 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="178" customHeight="1">
@@ -4814,79 +5303,83 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
-      <c r="B110" s="11"/>
+      <c r="B110" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="AA110" s="6" t="s">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B114" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -4894,15 +5387,15 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="178" customHeight="1">
@@ -4910,98 +5403,105 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="AA127" s="6" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
+      <c r="B135" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>553</v>
+      </c>
       <c r="AA135" s="6" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -5009,15 +5509,15 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:29" ht="178" customHeight="1">
@@ -5025,89 +5525,89 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
-      <c r="B148" s="11"/>
+      <c r="B148" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
-      <c r="B152" s="11" t="s">
-        <v>485</v>
-      </c>
+      <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5118,59 +5618,61 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
+      <c r="B165" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5178,15 +5680,15 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="178" customHeight="1">
@@ -5194,32 +5696,34 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="11"/>
+      <c r="B174" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5227,26 +5731,28 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="178" customHeight="1">
-      <c r="B179" s="11"/>
+      <c r="B179" s="11" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5254,114 +5760,68 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>517</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11" t="s">
-        <v>367</v>
+        <v>508</v>
       </c>
       <c r="AA187" s="6" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA19:AE19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B187 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B157 B110 B93 B31" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AC63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B174 B165 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>AA93:AD93</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
-      <formula1>AA110:AD110</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
-      <formula1>AA127:AC127</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AC135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
-      <formula1>AA152:AC152</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
-      <formula1>AA157:AD157</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
-      <formula1>AA187:AC187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5369,35 +5829,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5408,10 +5870,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5419,10 +5881,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5430,73 +5892,78 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>536</v>
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5505,27 +5972,27 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>530</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA15:AD15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
